--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adr\Desktop\colchonespremium\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adr\Desktop\colchonespremium2\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="383">
   <si>
     <t>Almohada Venecia 0.65 Inducol 1 UN</t>
   </si>
@@ -1098,16 +1098,92 @@
   </si>
   <si>
     <t>INDUCOL</t>
+  </si>
+  <si>
+    <t>[601350] Juego de Cocina DAEWOO 7 Pzas (ø24,20,18 y sarten ø24) Antiadherente DWL-SET7</t>
+  </si>
+  <si>
+    <t>[602241] Juego de Cocina DAEWOO 5 Pzas (ø24,16 y sarten ø24)  Antiadherente DWL-SET5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[600145] Jgo. Cub DYNAMIC TRAMONTINA (6Cuch+6Ten)Mango Madera (22399/030)x 12 </t>
+  </si>
+  <si>
+    <t>[602535] Cubiertos Acero Inox  Juego BUZIOS Tramontina x 24 Pzas(23799)</t>
+  </si>
+  <si>
+    <t>[602410] Cafetera WhitenBlack  c/ filtro removible 1.5L 1000W (WBACWBA02)</t>
+  </si>
+  <si>
+    <t>[602528] Pava Elect ATMA PE1821AP2 1,7 lt -Selec Temp</t>
+  </si>
+  <si>
+    <t>[601890] Sandwichera SMARTLIFE electrica SL-SW3383</t>
+  </si>
+  <si>
+    <t>[601882] Batidora de mano SMARTLIFE SL-HM1035 (PN)</t>
+  </si>
+  <si>
+    <t>[602117] Batidora LILIANA c/ Bowl "Giramix" 450 W ( AAB102 )</t>
+  </si>
+  <si>
+    <t>[601194] Exprimidor de Citricos OSTER SL-JC3400</t>
+  </si>
+  <si>
+    <t>DAEWOO</t>
+  </si>
+  <si>
+    <t>TRAMONTINA</t>
+  </si>
+  <si>
+    <t>SMARTLIFE</t>
+  </si>
+  <si>
+    <t>OSTER</t>
+  </si>
+  <si>
+    <t>BUZIOS</t>
+  </si>
+  <si>
+    <t>WHITENBLACK</t>
+  </si>
+  <si>
+    <t>ATMA</t>
+  </si>
+  <si>
+    <t>LILIANA</t>
+  </si>
+  <si>
+    <t>Juego Cocina</t>
+  </si>
+  <si>
+    <t>Cubiertos</t>
+  </si>
+  <si>
+    <t>Cafetera</t>
+  </si>
+  <si>
+    <t>Pava</t>
+  </si>
+  <si>
+    <t>Sandwichera</t>
+  </si>
+  <si>
+    <t>Batidora</t>
+  </si>
+  <si>
+    <t>Exprimidor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,6 +1207,19 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -1165,22 +1254,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moneda 2" xfId="2"/>
+    <cellStyle name="Moneda 3" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1461,17 +1557,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:F340"/>
+  <dimension ref="A1:F350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,7 +1577,7 @@
       <c r="B1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>339</v>
       </c>
       <c r="D1" t="s">
@@ -1501,7 +1597,7 @@
       <c r="B2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>11234</v>
       </c>
       <c r="D2" t="s">
@@ -1521,7 +1617,7 @@
       <c r="B3" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>12426</v>
       </c>
       <c r="D3" t="s">
@@ -1541,7 +1637,7 @@
       <c r="B4" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>14370</v>
       </c>
       <c r="D4" t="s">
@@ -1561,7 +1657,7 @@
       <c r="B5" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>11869</v>
       </c>
       <c r="D5" t="s">
@@ -1578,7 +1674,7 @@
       <c r="B6" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>12726</v>
       </c>
       <c r="D6" t="s">
@@ -1595,7 +1691,7 @@
       <c r="B7" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>14441</v>
       </c>
       <c r="D7" t="s">
@@ -1612,7 +1708,7 @@
       <c r="B8" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>16157</v>
       </c>
       <c r="D8" t="s">
@@ -1629,7 +1725,7 @@
       <c r="B9" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>17872</v>
       </c>
       <c r="D9" t="s">
@@ -1646,7 +1742,7 @@
       <c r="B10" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>23017</v>
       </c>
       <c r="D10" t="s">
@@ -1663,7 +1759,7 @@
       <c r="B11" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>24732</v>
       </c>
       <c r="D11" t="s">
@@ -1680,7 +1776,7 @@
       <c r="B12" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>30457</v>
       </c>
       <c r="D12" t="s">
@@ -1697,7 +1793,7 @@
       <c r="B13" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>34593</v>
       </c>
       <c r="D13" t="s">
@@ -1714,7 +1810,7 @@
       <c r="B14" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>38729</v>
       </c>
       <c r="D14" t="s">
@@ -1731,7 +1827,7 @@
       <c r="B15" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>8180</v>
       </c>
       <c r="D15" t="s">
@@ -1748,7 +1844,7 @@
       <c r="B16" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>8776</v>
       </c>
       <c r="D16" t="s">
@@ -1765,7 +1861,7 @@
       <c r="B17" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>9969</v>
       </c>
       <c r="D17" t="s">
@@ -1782,7 +1878,7 @@
       <c r="B18" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>11161</v>
       </c>
       <c r="D18" t="s">
@@ -1799,7 +1895,7 @@
       <c r="B19" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>12353</v>
       </c>
       <c r="D19" t="s">
@@ -1816,7 +1912,7 @@
       <c r="B20" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>15931</v>
       </c>
       <c r="D20" t="s">
@@ -1833,7 +1929,7 @@
       <c r="B21" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="7">
         <v>17123</v>
       </c>
       <c r="D21" t="s">
@@ -1850,7 +1946,7 @@
       <c r="B22" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="7">
         <v>17574</v>
       </c>
       <c r="D22" t="s">
@@ -1867,7 +1963,7 @@
       <c r="B23" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="7">
         <v>114322</v>
       </c>
       <c r="D23" t="s">
@@ -1884,7 +1980,7 @@
       <c r="B24" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="7">
         <v>114322</v>
       </c>
       <c r="D24" t="s">
@@ -1901,7 +1997,7 @@
       <c r="B25" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="7">
         <v>114322</v>
       </c>
       <c r="D25" t="s">
@@ -1918,7 +2014,7 @@
       <c r="B26" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="7">
         <v>127371</v>
       </c>
       <c r="D26" t="s">
@@ -1935,7 +2031,7 @@
       <c r="B27" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="7">
         <v>127452</v>
       </c>
       <c r="D27" t="s">
@@ -1952,7 +2048,7 @@
       <c r="B28" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="7">
         <v>142059</v>
       </c>
       <c r="D28" t="s">
@@ -1969,7 +2065,7 @@
       <c r="B29" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="7">
         <v>140822</v>
       </c>
       <c r="D29" t="s">
@@ -1986,7 +2082,7 @@
       <c r="B30" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <v>140822</v>
       </c>
       <c r="D30" t="s">
@@ -2003,7 +2099,7 @@
       <c r="B31" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="7">
         <v>140822</v>
       </c>
       <c r="D31" t="s">
@@ -2020,7 +2116,7 @@
       <c r="B32" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="7">
         <v>156986</v>
       </c>
       <c r="D32" t="s">
@@ -2037,7 +2133,7 @@
       <c r="B33" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="7">
         <v>180452</v>
       </c>
       <c r="D33" t="s">
@@ -2054,7 +2150,7 @@
       <c r="B34" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="7">
         <v>201291</v>
       </c>
       <c r="D34" t="s">
@@ -2071,7 +2167,7 @@
       <c r="B35" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="7">
         <v>193821</v>
       </c>
       <c r="D35" t="s">
@@ -2088,7 +2184,7 @@
       <c r="B36" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="7">
         <v>216218</v>
       </c>
       <c r="D36" t="s">
@@ -2105,7 +2201,7 @@
       <c r="B37" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="7">
         <v>230986</v>
       </c>
       <c r="D37" t="s">
@@ -2122,7 +2218,7 @@
       <c r="B38" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="7">
         <v>278628</v>
       </c>
       <c r="D38" t="s">
@@ -2139,7 +2235,7 @@
       <c r="B39" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="7">
         <v>319506</v>
       </c>
       <c r="D39" t="s">
@@ -2156,7 +2252,7 @@
       <c r="B40" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="7">
         <v>346374</v>
       </c>
       <c r="D40" t="s">
@@ -2173,7 +2269,7 @@
       <c r="B41" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="7">
         <v>357156</v>
       </c>
       <c r="D41" t="s">
@@ -2190,7 +2286,7 @@
       <c r="B42" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="7">
         <v>455107</v>
       </c>
       <c r="D42" t="s">
@@ -2207,7 +2303,7 @@
       <c r="B43" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="7">
         <v>468491</v>
       </c>
       <c r="D43" t="s">
@@ -2224,7 +2320,7 @@
       <c r="B44" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="7">
         <v>468491</v>
       </c>
       <c r="D44" t="s">
@@ -2241,7 +2337,7 @@
       <c r="B45" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="7">
         <v>535065</v>
       </c>
       <c r="D45" t="s">
@@ -2258,7 +2354,7 @@
       <c r="B46" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="7">
         <v>553611</v>
       </c>
       <c r="D46" t="s">
@@ -2275,7 +2371,7 @@
       <c r="B47" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="7">
         <v>664987</v>
       </c>
       <c r="D47" t="s">
@@ -2292,7 +2388,7 @@
       <c r="B48" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="7">
         <v>695237</v>
       </c>
       <c r="D48" t="s">
@@ -2309,7 +2405,7 @@
       <c r="B49" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="7">
         <v>74607</v>
       </c>
       <c r="D49" t="s">
@@ -2326,7 +2422,7 @@
       <c r="B50" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="7">
         <v>94096</v>
       </c>
       <c r="D50" t="s">
@@ -2343,7 +2439,7 @@
       <c r="B51" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="7">
         <v>105063</v>
       </c>
       <c r="D51" t="s">
@@ -2360,7 +2456,7 @@
       <c r="B52" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="7">
         <v>116030</v>
       </c>
       <c r="D52" t="s">
@@ -2377,7 +2473,7 @@
       <c r="B53" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="7">
         <v>155974</v>
       </c>
       <c r="D53" t="s">
@@ -2394,7 +2490,7 @@
       <c r="B54" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="7">
         <v>159898</v>
       </c>
       <c r="D54" t="s">
@@ -2411,7 +2507,7 @@
       <c r="B55" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="7">
         <v>33901</v>
       </c>
       <c r="D55" t="s">
@@ -2428,7 +2524,7 @@
       <c r="B56" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="7">
         <v>35168</v>
       </c>
       <c r="D56" t="s">
@@ -2445,7 +2541,7 @@
       <c r="B57" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="7">
         <v>36339</v>
       </c>
       <c r="D57" t="s">
@@ -2462,7 +2558,7 @@
       <c r="B58" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="7">
         <v>33333</v>
       </c>
       <c r="D58" t="s">
@@ -2479,7 +2575,7 @@
       <c r="B59" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="7">
         <v>46969</v>
       </c>
       <c r="D59" t="s">
@@ -2496,7 +2592,7 @@
       <c r="B60" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="7">
         <v>42036</v>
       </c>
       <c r="D60" t="s">
@@ -2513,7 +2609,7 @@
       <c r="B61" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="7">
         <v>55374</v>
       </c>
       <c r="D61" t="s">
@@ -2530,7 +2626,7 @@
       <c r="B62" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="7">
         <v>51058</v>
       </c>
       <c r="D62" t="s">
@@ -2547,7 +2643,7 @@
       <c r="B63" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="7">
         <v>51865</v>
       </c>
       <c r="D63" t="s">
@@ -2564,7 +2660,7 @@
       <c r="B64" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="7">
         <v>46730</v>
       </c>
       <c r="D64" t="s">
@@ -2581,7 +2677,7 @@
       <c r="B65" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="7">
         <v>31613</v>
       </c>
       <c r="D65" t="s">
@@ -2598,7 +2694,7 @@
       <c r="B66" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="7">
         <v>42378</v>
       </c>
       <c r="D66" t="s">
@@ -2615,7 +2711,7 @@
       <c r="B67" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="7">
         <v>30543</v>
       </c>
       <c r="D67" t="s">
@@ -2632,7 +2728,7 @@
       <c r="B68" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="7">
         <v>65818</v>
       </c>
       <c r="D68" t="s">
@@ -2649,7 +2745,7 @@
       <c r="B69" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="7">
         <v>46051</v>
       </c>
       <c r="D69" t="s">
@@ -2666,7 +2762,7 @@
       <c r="B70" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="7">
         <v>118829</v>
       </c>
       <c r="D70" t="s">
@@ -2683,7 +2779,7 @@
       <c r="B71" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="7">
         <v>97430</v>
       </c>
       <c r="D71" t="s">
@@ -2700,7 +2796,7 @@
       <c r="B72" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="7">
         <v>172073</v>
       </c>
       <c r="D72" t="s">
@@ -2717,7 +2813,7 @@
       <c r="B73" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="7">
         <v>192124</v>
       </c>
       <c r="D73" t="s">
@@ -2734,7 +2830,7 @@
       <c r="B74" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="7">
         <v>212409</v>
       </c>
       <c r="D74" t="s">
@@ -2751,7 +2847,7 @@
       <c r="B75" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="7">
         <v>283611</v>
       </c>
       <c r="D75" t="s">
@@ -2768,7 +2864,7 @@
       <c r="B76" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="7">
         <v>281982</v>
       </c>
       <c r="D76" t="s">
@@ -2785,7 +2881,7 @@
       <c r="B77" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="7">
         <v>293081</v>
       </c>
       <c r="D77" t="s">
@@ -2802,7 +2898,7 @@
       <c r="B78" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="7">
         <v>170633</v>
       </c>
       <c r="D78" t="s">
@@ -2819,7 +2915,7 @@
       <c r="B79" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="7">
         <v>199388</v>
       </c>
       <c r="D79" t="s">
@@ -2836,7 +2932,7 @@
       <c r="B80" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="7">
         <v>190309</v>
       </c>
       <c r="D80" t="s">
@@ -2853,7 +2949,7 @@
       <c r="B81" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="7">
         <v>222529</v>
       </c>
       <c r="D81" t="s">
@@ -2870,7 +2966,7 @@
       <c r="B82" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="7">
         <v>210250</v>
       </c>
       <c r="D82" t="s">
@@ -2887,7 +2983,7 @@
       <c r="B83" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="7">
         <v>245935</v>
       </c>
       <c r="D83" t="s">
@@ -2904,7 +3000,7 @@
       <c r="B84" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="7">
         <v>217893</v>
       </c>
       <c r="D84" t="s">
@@ -2921,7 +3017,7 @@
       <c r="B85" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="7">
         <v>255423</v>
       </c>
       <c r="D85" t="s">
@@ -2938,7 +3034,7 @@
       <c r="B86" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="7">
         <v>269543</v>
       </c>
       <c r="D86" t="s">
@@ -2955,7 +3051,7 @@
       <c r="B87" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="7">
         <v>315623</v>
       </c>
       <c r="D87" t="s">
@@ -2972,7 +3068,7 @@
       <c r="B88" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="7">
         <v>289484</v>
       </c>
       <c r="D88" t="s">
@@ -2989,7 +3085,7 @@
       <c r="B89" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="7">
         <v>339029</v>
       </c>
       <c r="D89" t="s">
@@ -3006,7 +3102,7 @@
       <c r="B90" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="7">
         <v>309248</v>
       </c>
       <c r="D90" t="s">
@@ -3023,7 +3119,7 @@
       <c r="B91" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="7">
         <v>362258</v>
       </c>
       <c r="D91" t="s">
@@ -3040,7 +3136,7 @@
       <c r="B92" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="7">
         <v>341052</v>
       </c>
       <c r="D92" t="s">
@@ -3057,7 +3153,7 @@
       <c r="B93" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="7">
         <v>400452</v>
       </c>
       <c r="D93" t="s">
@@ -3074,7 +3170,7 @@
       <c r="B94" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="7">
         <v>212638</v>
       </c>
       <c r="D94" t="s">
@@ -3091,7 +3187,7 @@
       <c r="B95" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="7">
         <v>237447</v>
       </c>
       <c r="D95" t="s">
@@ -3108,7 +3204,7 @@
       <c r="B96" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="7">
         <v>262518</v>
       </c>
       <c r="D96" t="s">
@@ -3125,7 +3221,7 @@
       <c r="B97" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="7">
         <v>272988</v>
       </c>
       <c r="D97" t="s">
@@ -3142,7 +3238,7 @@
       <c r="B98" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="7">
         <v>337208</v>
       </c>
       <c r="D98" t="s">
@@ -3159,7 +3255,7 @@
       <c r="B99" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="7">
         <v>362279</v>
       </c>
       <c r="D99" t="s">
@@ -3176,7 +3272,7 @@
       <c r="B100" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="7">
         <v>387176</v>
       </c>
       <c r="D100" t="s">
@@ -3193,7 +3289,7 @@
       <c r="B101" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="7">
         <v>428610</v>
       </c>
       <c r="D101" t="s">
@@ -3210,7 +3306,7 @@
       <c r="B102" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="7">
         <v>480309</v>
       </c>
       <c r="D102" t="s">
@@ -3227,7 +3323,7 @@
       <c r="B103" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="7">
         <v>531398</v>
       </c>
       <c r="D103" t="s">
@@ -3244,7 +3340,7 @@
       <c r="B104" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="7">
         <v>253222</v>
       </c>
       <c r="D104" t="s">
@@ -3261,7 +3357,7 @@
       <c r="B105" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="7">
         <v>285215</v>
       </c>
       <c r="D105" t="s">
@@ -3278,7 +3374,7 @@
       <c r="B106" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="7">
         <v>312121</v>
       </c>
       <c r="D106" t="s">
@@ -3295,7 +3391,7 @@
       <c r="B107" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="7">
         <v>322869</v>
       </c>
       <c r="D107" t="s">
@@ -3312,7 +3408,7 @@
       <c r="B108" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="7">
         <v>416209</v>
       </c>
       <c r="D108" t="s">
@@ -3329,7 +3425,7 @@
       <c r="B109" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="7">
         <v>423848</v>
       </c>
       <c r="D109" t="s">
@@ -3346,7 +3442,7 @@
       <c r="B110" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="7">
         <v>488697</v>
       </c>
       <c r="D110" t="s">
@@ -3363,7 +3459,7 @@
       <c r="B111" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="7">
         <v>501173</v>
       </c>
       <c r="D111" t="s">
@@ -3380,7 +3476,7 @@
       <c r="B112" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="7">
         <v>570082</v>
       </c>
       <c r="D112" t="s">
@@ -3397,7 +3493,7 @@
       <c r="B113" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="7">
         <v>622649</v>
       </c>
       <c r="D113" t="s">
@@ -3414,7 +3510,7 @@
       <c r="B114" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="7">
         <v>177811</v>
       </c>
       <c r="D114" t="s">
@@ -3431,7 +3527,7 @@
       <c r="B115" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="7">
         <v>202415</v>
       </c>
       <c r="D115" t="s">
@@ -3448,7 +3544,7 @@
       <c r="B116" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="7">
         <v>220998</v>
       </c>
       <c r="D116" t="s">
@@ -3465,7 +3561,7 @@
       <c r="B117" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="7">
         <v>221059</v>
       </c>
       <c r="D117" t="s">
@@ -3482,7 +3578,7 @@
       <c r="B118" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="7">
         <v>284045</v>
       </c>
       <c r="D118" t="s">
@@ -3499,7 +3595,7 @@
       <c r="B119" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="7">
         <v>280775</v>
       </c>
       <c r="D119" t="s">
@@ -3516,7 +3612,7 @@
       <c r="B120" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="7">
         <v>324844</v>
       </c>
       <c r="D120" t="s">
@@ -3533,7 +3629,7 @@
       <c r="B121" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="7">
         <v>326951</v>
       </c>
       <c r="D121" t="s">
@@ -3550,7 +3646,7 @@
       <c r="B122" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="7">
         <v>363922</v>
       </c>
       <c r="D122" t="s">
@@ -3567,7 +3663,7 @@
       <c r="B123" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="7">
         <v>398113</v>
       </c>
       <c r="D123" t="s">
@@ -3584,7 +3680,7 @@
       <c r="B124" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="7">
         <v>207802</v>
       </c>
       <c r="D124" t="s">
@@ -3601,7 +3697,7 @@
       <c r="B125" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="7">
         <v>246716</v>
       </c>
       <c r="D125" t="s">
@@ -3618,7 +3714,7 @@
       <c r="B126" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="7">
         <v>253827</v>
       </c>
       <c r="D126" t="s">
@@ -3635,7 +3731,7 @@
       <c r="B127" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="7">
         <v>303162</v>
       </c>
       <c r="D127" t="s">
@@ -3652,7 +3748,7 @@
       <c r="B128" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="7">
         <v>263986</v>
       </c>
       <c r="D128" t="s">
@@ -3669,7 +3765,7 @@
       <c r="B129" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="7">
         <v>314102</v>
       </c>
       <c r="D129" t="s">
@@ -3686,7 +3782,7 @@
       <c r="B130" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="7">
         <v>266260</v>
       </c>
       <c r="D130" t="s">
@@ -3703,7 +3799,7 @@
       <c r="B131" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="7">
         <v>316828</v>
       </c>
       <c r="D131" t="s">
@@ -3720,7 +3816,7 @@
       <c r="B132" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="7">
         <v>334385</v>
       </c>
       <c r="D132" t="s">
@@ -3737,7 +3833,7 @@
       <c r="B133" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="7">
         <v>397643</v>
       </c>
       <c r="D133" t="s">
@@ -3754,7 +3850,7 @@
       <c r="B134" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="7">
         <v>344544</v>
       </c>
       <c r="D134" t="s">
@@ -3771,7 +3867,7 @@
       <c r="B135" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="7">
         <v>408583</v>
       </c>
       <c r="D135" t="s">
@@ -3788,7 +3884,7 @@
       <c r="B136" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="7">
         <v>393555</v>
       </c>
       <c r="D136" t="s">
@@ -3805,7 +3901,7 @@
       <c r="B137" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="7">
         <v>468787</v>
       </c>
       <c r="D137" t="s">
@@ -3822,7 +3918,7 @@
       <c r="B138" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="7">
         <v>406993</v>
       </c>
       <c r="D138" t="s">
@@ -3839,7 +3935,7 @@
       <c r="B139" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="7">
         <v>483678</v>
       </c>
       <c r="D139" t="s">
@@ -3856,7 +3952,7 @@
       <c r="B140" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="7">
         <v>499505</v>
       </c>
       <c r="D140" t="s">
@@ -3873,7 +3969,7 @@
       <c r="B141" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="7">
         <v>597105</v>
       </c>
       <c r="D141" t="s">
@@ -3890,7 +3986,7 @@
       <c r="B142" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="7">
         <v>519064</v>
       </c>
       <c r="D142" t="s">
@@ -3907,7 +4003,7 @@
       <c r="B143" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="7">
         <v>618300</v>
       </c>
       <c r="D143" t="s">
@@ -3924,7 +4020,7 @@
       <c r="B144" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="7">
         <v>283561</v>
       </c>
       <c r="D144" t="s">
@@ -3941,7 +4037,7 @@
       <c r="B145" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="7">
         <v>325136</v>
       </c>
       <c r="D145" t="s">
@@ -3958,7 +4054,7 @@
       <c r="B146" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="7">
         <v>351893</v>
       </c>
       <c r="D146" t="s">
@@ -3975,7 +4071,7 @@
       <c r="B147" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="7">
         <v>362030</v>
       </c>
       <c r="D147" t="s">
@@ -3992,7 +4088,7 @@
       <c r="B148" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="7">
         <v>447651</v>
       </c>
       <c r="D148" t="s">
@@ -4009,7 +4105,7 @@
       <c r="B149" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="7">
         <v>474408</v>
       </c>
       <c r="D149" t="s">
@@ -4026,7 +4122,7 @@
       <c r="B150" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="7">
         <v>474408</v>
       </c>
       <c r="D150" t="s">
@@ -4043,7 +4139,7 @@
       <c r="B151" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="7">
         <v>516889</v>
       </c>
       <c r="D151" t="s">
@@ -4060,7 +4156,7 @@
       <c r="B152" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="7">
         <v>559032</v>
       </c>
       <c r="D152" t="s">
@@ -4077,7 +4173,7 @@
       <c r="B153" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="7">
         <v>643214</v>
       </c>
       <c r="D153" t="s">
@@ -4094,7 +4190,7 @@
       <c r="B154" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="7">
         <v>696047</v>
       </c>
       <c r="D154" t="s">
@@ -4111,7 +4207,7 @@
       <c r="B155" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="7">
         <v>337735</v>
       </c>
       <c r="D155" t="s">
@@ -4128,7 +4224,7 @@
       <c r="B156" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="7">
         <v>385733</v>
       </c>
       <c r="D156" t="s">
@@ -4145,7 +4241,7 @@
       <c r="B157" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="7">
         <v>418124</v>
       </c>
       <c r="D157" t="s">
@@ -4162,7 +4258,7 @@
       <c r="B158" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="7">
         <v>428277</v>
       </c>
       <c r="D158" t="s">
@@ -4179,7 +4275,7 @@
       <c r="B159" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="7">
         <v>530897</v>
       </c>
       <c r="D159" t="s">
@@ -4196,7 +4292,7 @@
       <c r="B160" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="7">
         <v>563288</v>
       </c>
       <c r="D160" t="s">
@@ -4213,7 +4309,7 @@
       <c r="B161" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="7">
         <v>563288</v>
       </c>
       <c r="D161" t="s">
@@ -4230,7 +4326,7 @@
       <c r="B162" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162" s="7">
         <v>611505</v>
       </c>
       <c r="D162" t="s">
@@ -4247,7 +4343,7 @@
       <c r="B163" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="7">
         <v>659315</v>
       </c>
       <c r="D163" t="s">
@@ -4264,7 +4360,7 @@
       <c r="B164" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="7">
         <v>754961</v>
       </c>
       <c r="D164" t="s">
@@ -4281,7 +4377,7 @@
       <c r="B165" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="7">
         <v>819088</v>
       </c>
       <c r="D165" t="s">
@@ -4298,7 +4394,7 @@
       <c r="B166" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="7">
         <v>144470</v>
       </c>
       <c r="D166" t="s">
@@ -4315,7 +4411,7 @@
       <c r="B167" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="7">
         <v>159156</v>
       </c>
       <c r="D167" t="s">
@@ -4332,7 +4428,7 @@
       <c r="B168" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="7">
         <v>147520</v>
       </c>
       <c r="D168" t="s">
@@ -4349,7 +4445,7 @@
       <c r="B169" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="7">
         <v>162563</v>
       </c>
       <c r="D169" t="s">
@@ -4366,7 +4462,7 @@
       <c r="B170" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="7">
         <v>160825</v>
       </c>
       <c r="D170" t="s">
@@ -4383,7 +4479,7 @@
       <c r="B171" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="7">
         <v>177691</v>
       </c>
       <c r="D171" t="s">
@@ -4400,7 +4496,7 @@
       <c r="B172" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="7">
         <v>89949</v>
       </c>
       <c r="D172" t="s">
@@ -4417,7 +4513,7 @@
       <c r="B173" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173" s="9">
         <v>101052</v>
       </c>
       <c r="D173" t="s">
@@ -4437,7 +4533,7 @@
       <c r="B174" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="7">
         <v>126340</v>
       </c>
       <c r="D174" t="s">
@@ -4454,7 +4550,7 @@
       <c r="B175" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="7">
         <v>139495</v>
       </c>
       <c r="D175" t="s">
@@ -4471,7 +4567,7 @@
       <c r="B176" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="7">
         <v>178961</v>
       </c>
       <c r="D176" t="s">
@@ -4488,7 +4584,7 @@
       <c r="B177" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="7">
         <v>192116</v>
       </c>
       <c r="D177" t="s">
@@ -4505,7 +4601,7 @@
       <c r="B178" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="9">
         <v>101179</v>
       </c>
       <c r="D178" t="s">
@@ -4525,7 +4621,7 @@
       <c r="B179" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="7">
         <v>172127</v>
       </c>
       <c r="D179" t="s">
@@ -4542,7 +4638,7 @@
       <c r="B180" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="7">
         <v>51098</v>
       </c>
       <c r="D180" t="s">
@@ -4559,7 +4655,7 @@
       <c r="B181" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="7">
         <v>57696</v>
       </c>
       <c r="D181" t="s">
@@ -4576,7 +4672,7 @@
       <c r="B182" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182" s="7">
         <v>64501</v>
       </c>
       <c r="D182" t="s">
@@ -4593,7 +4689,7 @@
       <c r="B183" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C183" s="9">
         <v>71928</v>
       </c>
       <c r="D183" t="s">
@@ -4613,7 +4709,7 @@
       <c r="B184" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="7">
         <v>57389</v>
       </c>
       <c r="D184" t="s">
@@ -4630,7 +4726,7 @@
       <c r="B185" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="7">
         <v>64947</v>
       </c>
       <c r="D185" t="s">
@@ -4647,7 +4743,7 @@
       <c r="B186" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="7">
         <v>72136</v>
       </c>
       <c r="D186" t="s">
@@ -4664,7 +4760,7 @@
       <c r="B187" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="7">
         <v>80349</v>
       </c>
       <c r="D187" t="s">
@@ -4681,7 +4777,7 @@
       <c r="B188" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="7">
         <v>63401</v>
       </c>
       <c r="D188" t="s">
@@ -4698,7 +4794,7 @@
       <c r="B189" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="7">
         <v>71673</v>
       </c>
       <c r="D189" t="s">
@@ -4715,7 +4811,7 @@
       <c r="B190" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190" s="7">
         <v>79770</v>
       </c>
       <c r="D190" t="s">
@@ -4732,7 +4828,7 @@
       <c r="B191" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="7">
         <v>88770</v>
       </c>
       <c r="D191" t="s">
@@ -4749,7 +4845,7 @@
       <c r="B192" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192" s="7">
         <v>81437</v>
       </c>
       <c r="D192" t="s">
@@ -4766,7 +4862,7 @@
       <c r="B193" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="7">
         <v>91853</v>
       </c>
       <c r="D193" t="s">
@@ -4783,7 +4879,7 @@
       <c r="B194" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="7">
         <v>102673</v>
       </c>
       <c r="D194" t="s">
@@ -4800,7 +4896,7 @@
       <c r="B195" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="7">
         <v>114033</v>
       </c>
       <c r="D195" t="s">
@@ -4817,7 +4913,7 @@
       <c r="B196" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196" s="7">
         <v>87449</v>
       </c>
       <c r="D196" t="s">
@@ -4834,7 +4930,7 @@
       <c r="B197" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="7">
         <v>98579</v>
       </c>
       <c r="D197" t="s">
@@ -4851,7 +4947,7 @@
       <c r="B198" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198" s="7">
         <v>110307</v>
       </c>
       <c r="D198" t="s">
@@ -4868,7 +4964,7 @@
       <c r="B199" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C199" s="9">
         <v>122454</v>
       </c>
       <c r="D199" t="s">
@@ -4888,7 +4984,7 @@
       <c r="B200" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200" s="7">
         <v>112747</v>
       </c>
       <c r="D200" t="s">
@@ -4905,7 +5001,7 @@
       <c r="B201" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="7">
         <v>561093</v>
       </c>
       <c r="D201" t="s">
@@ -4922,7 +5018,7 @@
       <c r="B202" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="7">
         <v>624146</v>
       </c>
       <c r="D202" t="s">
@@ -4939,7 +5035,7 @@
       <c r="B203" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="7">
         <v>368163</v>
       </c>
       <c r="D203" t="s">
@@ -4956,7 +5052,7 @@
       <c r="B204" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="7">
         <v>405591</v>
       </c>
       <c r="D204" t="s">
@@ -4973,7 +5069,7 @@
       <c r="B205" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="7">
         <v>440324</v>
       </c>
       <c r="D205" t="s">
@@ -4990,7 +5086,7 @@
       <c r="B206" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="7">
         <v>450149</v>
       </c>
       <c r="D206" t="s">
@@ -5007,7 +5103,7 @@
       <c r="B207" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="7">
         <v>573178</v>
       </c>
       <c r="D207" t="s">
@@ -5024,7 +5120,7 @@
       <c r="B208" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="7">
         <v>585380</v>
       </c>
       <c r="D208" t="s">
@@ -5041,7 +5137,7 @@
       <c r="B209" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="7">
         <v>657677</v>
       </c>
       <c r="D209" t="s">
@@ -5058,7 +5154,7 @@
       <c r="B210" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="7">
         <v>729273</v>
       </c>
       <c r="D210" t="s">
@@ -5075,7 +5171,7 @@
       <c r="B211" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="7">
         <v>809225</v>
       </c>
       <c r="D211" t="s">
@@ -5092,7 +5188,7 @@
       <c r="B212" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="7">
         <v>877208</v>
       </c>
       <c r="D212" t="s">
@@ -5109,7 +5205,7 @@
       <c r="B213" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213" s="7">
         <v>204699</v>
       </c>
       <c r="D213" t="s">
@@ -5126,7 +5222,7 @@
       <c r="B214" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214" s="7">
         <v>204699</v>
       </c>
       <c r="D214" t="s">
@@ -5143,7 +5239,7 @@
       <c r="B215" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C215" s="7">
         <v>204699</v>
       </c>
       <c r="D215" t="s">
@@ -5160,7 +5256,7 @@
       <c r="B216" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216" s="7">
         <v>224160</v>
       </c>
       <c r="D216" t="s">
@@ -5177,7 +5273,7 @@
       <c r="B217" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217" s="7">
         <v>224160</v>
       </c>
       <c r="D217" t="s">
@@ -5194,7 +5290,7 @@
       <c r="B218" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218" s="7">
         <v>224160</v>
       </c>
       <c r="D218" t="s">
@@ -5211,7 +5307,7 @@
       <c r="B219" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219" s="7">
         <v>242513</v>
       </c>
       <c r="D219" t="s">
@@ -5228,7 +5324,7 @@
       <c r="B220" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220" s="7">
         <v>242513</v>
       </c>
       <c r="D220" t="s">
@@ -5245,7 +5341,7 @@
       <c r="B221" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221" s="7">
         <v>242513</v>
       </c>
       <c r="D221" t="s">
@@ -5262,7 +5358,7 @@
       <c r="B222" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222" s="7">
         <v>257903</v>
       </c>
       <c r="D222" t="s">
@@ -5279,7 +5375,7 @@
       <c r="B223" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223" s="7">
         <v>257903</v>
       </c>
       <c r="D223" t="s">
@@ -5296,7 +5392,7 @@
       <c r="B224" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224" s="7">
         <v>257903</v>
       </c>
       <c r="D224" t="s">
@@ -5313,7 +5409,7 @@
       <c r="B225" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C225" s="7">
         <v>307118</v>
       </c>
       <c r="D225" t="s">
@@ -5330,7 +5426,7 @@
       <c r="B226" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226" s="7">
         <v>307118</v>
       </c>
       <c r="D226" t="s">
@@ -5347,7 +5443,7 @@
       <c r="B227" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227" s="7">
         <v>307118</v>
       </c>
       <c r="D227" t="s">
@@ -5364,7 +5460,7 @@
       <c r="B228" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C228" s="7">
         <v>322649</v>
       </c>
       <c r="D228" t="s">
@@ -5381,7 +5477,7 @@
       <c r="B229" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229" s="7">
         <v>322649</v>
       </c>
       <c r="D229" t="s">
@@ -5398,7 +5494,7 @@
       <c r="B230" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230" s="7">
         <v>322649</v>
       </c>
       <c r="D230" t="s">
@@ -5415,7 +5511,7 @@
       <c r="B231" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231" s="7">
         <v>348853</v>
       </c>
       <c r="D231" t="s">
@@ -5432,7 +5528,7 @@
       <c r="B232" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="7">
         <v>348853</v>
       </c>
       <c r="D232" t="s">
@@ -5449,7 +5545,7 @@
       <c r="B233" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="7">
         <v>348853</v>
       </c>
       <c r="D233" t="s">
@@ -5466,7 +5562,7 @@
       <c r="B234" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="7">
         <v>375954</v>
       </c>
       <c r="D234" t="s">
@@ -5483,7 +5579,7 @@
       <c r="B235" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="7">
         <v>375954</v>
       </c>
       <c r="D235" t="s">
@@ -5500,7 +5596,7 @@
       <c r="B236" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="7">
         <v>375954</v>
       </c>
       <c r="D236" t="s">
@@ -5517,7 +5613,7 @@
       <c r="B237" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="7">
         <v>189228</v>
       </c>
       <c r="D237" t="s">
@@ -5534,7 +5630,7 @@
       <c r="B238" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="7">
         <v>207742</v>
       </c>
       <c r="D238" t="s">
@@ -5551,7 +5647,7 @@
       <c r="B239" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239" s="7">
         <v>225193</v>
       </c>
       <c r="D239" t="s">
@@ -5568,7 +5664,7 @@
       <c r="B240" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240" s="7">
         <v>243322</v>
       </c>
       <c r="D240" t="s">
@@ -5585,7 +5681,7 @@
       <c r="B241" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241" s="7">
         <v>287063</v>
       </c>
       <c r="D241" t="s">
@@ -5602,7 +5698,7 @@
       <c r="B242" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242" s="7">
         <v>301446</v>
       </c>
       <c r="D242" t="s">
@@ -5619,7 +5715,7 @@
       <c r="B243" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243" s="7">
         <v>327871</v>
       </c>
       <c r="D243" t="s">
@@ -5636,7 +5732,7 @@
       <c r="B244" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244" s="7">
         <v>352334</v>
       </c>
       <c r="D244" t="s">
@@ -5653,7 +5749,7 @@
       <c r="B245" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245" s="7">
         <v>296589</v>
       </c>
       <c r="D245" t="s">
@@ -5670,7 +5766,7 @@
       <c r="B246" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C246" s="4">
+      <c r="C246" s="7">
         <v>324574</v>
       </c>
       <c r="D246" t="s">
@@ -5687,7 +5783,7 @@
       <c r="B247" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247" s="7">
         <v>356582</v>
       </c>
       <c r="D247" t="s">
@@ -5704,7 +5800,7 @@
       <c r="B248" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248" s="7">
         <v>375059</v>
       </c>
       <c r="D248" t="s">
@@ -5721,7 +5817,7 @@
       <c r="B249" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249" s="7">
         <v>460781</v>
       </c>
       <c r="D249" t="s">
@@ -5738,7 +5834,7 @@
       <c r="B250" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C250" s="4">
+      <c r="C250" s="7">
         <v>484913</v>
       </c>
       <c r="D250" t="s">
@@ -5755,7 +5851,7 @@
       <c r="B251" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251" s="7">
         <v>519885</v>
       </c>
       <c r="D251" t="s">
@@ -5772,7 +5868,7 @@
       <c r="B252" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C252" s="7">
         <v>570570</v>
       </c>
       <c r="D252" t="s">
@@ -5789,7 +5885,7 @@
       <c r="B253" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C253" s="7">
         <v>651967</v>
       </c>
       <c r="D253" t="s">
@@ -5806,7 +5902,7 @@
       <c r="B254" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C254" s="7">
         <v>710835</v>
       </c>
       <c r="D254" t="s">
@@ -5823,7 +5919,7 @@
       <c r="B255" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C255" s="7">
         <v>274799</v>
       </c>
       <c r="D255" t="s">
@@ -5840,7 +5936,7 @@
       <c r="B256" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C256" s="4">
+      <c r="C256" s="7">
         <v>300838</v>
       </c>
       <c r="D256" t="s">
@@ -5857,7 +5953,7 @@
       <c r="B257" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C257" s="4">
+      <c r="C257" s="7">
         <v>330899</v>
       </c>
       <c r="D257" t="s">
@@ -5874,7 +5970,7 @@
       <c r="B258" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C258" s="7">
         <v>352979</v>
       </c>
       <c r="D258" t="s">
@@ -5891,7 +5987,7 @@
       <c r="B259" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C259" s="4">
+      <c r="C259" s="7">
         <v>429266</v>
       </c>
       <c r="D259" t="s">
@@ -5908,7 +6004,7 @@
       <c r="B260" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C260" s="4">
+      <c r="C260" s="7">
         <v>449330</v>
       </c>
       <c r="D260" t="s">
@@ -5925,7 +6021,7 @@
       <c r="B261" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C261" s="7">
         <v>482370</v>
       </c>
       <c r="D261" t="s">
@@ -5942,7 +6038,7 @@
       <c r="B262" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C262" s="4">
+      <c r="C262" s="7">
         <v>528882</v>
       </c>
       <c r="D262" t="s">
@@ -5959,7 +6055,7 @@
       <c r="B263" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C263" s="4">
+      <c r="C263" s="7">
         <v>624549</v>
       </c>
       <c r="D263" t="s">
@@ -5976,7 +6072,7 @@
       <c r="B264" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C264" s="4">
+      <c r="C264" s="7">
         <v>676987</v>
       </c>
       <c r="D264" t="s">
@@ -5993,7 +6089,7 @@
       <c r="B265" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C265" s="4">
+      <c r="C265" s="7">
         <v>230637</v>
       </c>
       <c r="D265" t="s">
@@ -6010,7 +6106,7 @@
       <c r="B266" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266" s="7">
         <v>256245</v>
       </c>
       <c r="D266" t="s">
@@ -6027,7 +6123,7 @@
       <c r="B267" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267" s="7">
         <v>275996</v>
       </c>
       <c r="D267" t="s">
@@ -6044,7 +6140,7 @@
       <c r="B268" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268" s="7">
         <v>296440</v>
       </c>
       <c r="D268" t="s">
@@ -6061,7 +6157,7 @@
       <c r="B269" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269" s="7">
         <v>350961</v>
       </c>
       <c r="D269" t="s">
@@ -6078,7 +6174,7 @@
       <c r="B270" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270" s="7">
         <v>367279</v>
       </c>
       <c r="D270" t="s">
@@ -6095,7 +6191,7 @@
       <c r="B271" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271" s="7">
         <v>401951</v>
       </c>
       <c r="D271" t="s">
@@ -6112,7 +6208,7 @@
       <c r="B272" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272" s="7">
         <v>429712</v>
       </c>
       <c r="D272" t="s">
@@ -6129,7 +6225,7 @@
       <c r="B273" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C273" s="4">
+      <c r="C273" s="7">
         <v>150852</v>
       </c>
       <c r="D273" t="s">
@@ -6146,7 +6242,7 @@
       <c r="B274" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C274" s="4">
+      <c r="C274" s="7">
         <v>150852</v>
       </c>
       <c r="D274" t="s">
@@ -6163,7 +6259,7 @@
       <c r="B275" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C275" s="4">
+      <c r="C275" s="7">
         <v>165229</v>
       </c>
       <c r="D275" t="s">
@@ -6180,7 +6276,7 @@
       <c r="B276" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C276" s="4">
+      <c r="C276" s="7">
         <v>178593</v>
       </c>
       <c r="D276" t="s">
@@ -6197,7 +6293,7 @@
       <c r="B277" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C277" s="4">
+      <c r="C277" s="7">
         <v>190925</v>
       </c>
       <c r="D277" t="s">
@@ -6214,7 +6310,7 @@
       <c r="B278" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C278" s="4">
+      <c r="C278" s="7">
         <v>226687</v>
       </c>
       <c r="D278" t="s">
@@ -6231,7 +6327,7 @@
       <c r="B279" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C279" s="4">
+      <c r="C279" s="7">
         <v>238366</v>
       </c>
       <c r="D279" t="s">
@@ -6248,7 +6344,7 @@
       <c r="B280" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C280" s="4">
+      <c r="C280" s="7">
         <v>238366</v>
       </c>
       <c r="D280" t="s">
@@ -6265,7 +6361,7 @@
       <c r="B281" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C281" s="4">
+      <c r="C281" s="7">
         <v>258035</v>
       </c>
       <c r="D281" t="s">
@@ -6282,7 +6378,7 @@
       <c r="B282" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C282" s="7">
         <v>148347</v>
       </c>
       <c r="D282" t="s">
@@ -6299,7 +6395,7 @@
       <c r="B283" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C283" s="7">
         <v>579996</v>
       </c>
       <c r="D283" t="s">
@@ -6316,7 +6412,7 @@
       <c r="B284" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C284" s="7">
         <v>651216</v>
       </c>
       <c r="D284" t="s">
@@ -6333,7 +6429,7 @@
       <c r="B285" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C285" s="4">
+      <c r="C285" s="7">
         <v>126240</v>
       </c>
       <c r="D285" t="s">
@@ -6350,7 +6446,7 @@
       <c r="B286" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C286" s="4">
+      <c r="C286" s="7">
         <v>126094</v>
       </c>
       <c r="D286" t="s">
@@ -6367,7 +6463,7 @@
       <c r="B287" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C287" s="4">
+      <c r="C287" s="7">
         <v>132527</v>
       </c>
       <c r="D287" t="s">
@@ -6384,7 +6480,7 @@
       <c r="B288" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C288" s="7">
         <v>132370</v>
       </c>
       <c r="D288" t="s">
@@ -6401,7 +6497,7 @@
       <c r="B289" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C289" s="7">
         <v>141784</v>
       </c>
       <c r="D289" t="s">
@@ -6418,7 +6514,7 @@
       <c r="B290" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C290" s="4">
+      <c r="C290" s="7">
         <v>141750</v>
       </c>
       <c r="D290" t="s">
@@ -6435,7 +6531,7 @@
       <c r="B291" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C291" s="4">
+      <c r="C291" s="7">
         <v>168894</v>
       </c>
       <c r="D291" t="s">
@@ -6452,7 +6548,7 @@
       <c r="B292" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C292" s="4">
+      <c r="C292" s="7">
         <v>173243</v>
       </c>
       <c r="D292" t="s">
@@ -6469,7 +6565,7 @@
       <c r="B293" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C293" s="4">
+      <c r="C293" s="7">
         <v>182748</v>
       </c>
       <c r="D293" t="s">
@@ -6486,7 +6582,7 @@
       <c r="B294" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C294" s="4">
+      <c r="C294" s="7">
         <v>130951</v>
       </c>
       <c r="D294" t="s">
@@ -6503,7 +6599,7 @@
       <c r="B295" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C295" s="4">
+      <c r="C295" s="7">
         <v>130951</v>
       </c>
       <c r="D295" t="s">
@@ -6520,7 +6616,7 @@
       <c r="B296" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C296" s="4">
+      <c r="C296" s="7">
         <v>130951</v>
       </c>
       <c r="D296" t="s">
@@ -6537,7 +6633,7 @@
       <c r="B297" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C297" s="4">
+      <c r="C297" s="7">
         <v>133466</v>
       </c>
       <c r="D297" t="s">
@@ -6554,7 +6650,7 @@
       <c r="B298" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C298" s="4">
+      <c r="C298" s="7">
         <v>130951</v>
       </c>
       <c r="D298" t="s">
@@ -6571,7 +6667,7 @@
       <c r="B299" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C299" s="4">
+      <c r="C299" s="7">
         <v>130951</v>
       </c>
       <c r="D299" t="s">
@@ -6588,7 +6684,7 @@
       <c r="B300" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C300" s="4">
+      <c r="C300" s="7">
         <v>130927</v>
       </c>
       <c r="D300" t="s">
@@ -6605,7 +6701,7 @@
       <c r="B301" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C301" s="4">
+      <c r="C301" s="7">
         <v>130927</v>
       </c>
       <c r="D301" t="s">
@@ -6622,7 +6718,7 @@
       <c r="B302" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302" s="7">
         <v>130927</v>
       </c>
       <c r="D302" t="s">
@@ -6639,7 +6735,7 @@
       <c r="B303" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C303" s="7">
         <v>133535</v>
       </c>
       <c r="D303" t="s">
@@ -6656,7 +6752,7 @@
       <c r="B304" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C304" s="4">
+      <c r="C304" s="7">
         <v>130927</v>
       </c>
       <c r="D304" t="s">
@@ -6673,7 +6769,7 @@
       <c r="B305" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C305" s="4">
+      <c r="C305" s="7">
         <v>137428</v>
       </c>
       <c r="D305" t="s">
@@ -6690,7 +6786,7 @@
       <c r="B306" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C306" s="7">
         <v>137428</v>
       </c>
       <c r="D306" t="s">
@@ -6707,7 +6803,7 @@
       <c r="B307" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C307" s="4">
+      <c r="C307" s="7">
         <v>137428</v>
       </c>
       <c r="D307" t="s">
@@ -6724,7 +6820,7 @@
       <c r="B308" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C308" s="4">
+      <c r="C308" s="7">
         <v>140036</v>
       </c>
       <c r="D308" t="s">
@@ -6741,7 +6837,7 @@
       <c r="B309" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C309" s="4">
+      <c r="C309" s="7">
         <v>137428</v>
       </c>
       <c r="D309" t="s">
@@ -6758,7 +6854,7 @@
       <c r="B310" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C310" s="4">
+      <c r="C310" s="7">
         <v>137428</v>
       </c>
       <c r="D310" t="s">
@@ -6775,7 +6871,7 @@
       <c r="B311" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C311" s="4">
+      <c r="C311" s="7">
         <v>137394</v>
       </c>
       <c r="D311" t="s">
@@ -6792,7 +6888,7 @@
       <c r="B312" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C312" s="4">
+      <c r="C312" s="7">
         <v>137394</v>
       </c>
       <c r="D312" t="s">
@@ -6809,7 +6905,7 @@
       <c r="B313" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C313" s="4">
+      <c r="C313" s="7">
         <v>137394</v>
       </c>
       <c r="D313" t="s">
@@ -6826,7 +6922,7 @@
       <c r="B314" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C314" s="4">
+      <c r="C314" s="7">
         <v>140095</v>
       </c>
       <c r="D314" t="s">
@@ -6843,7 +6939,7 @@
       <c r="B315" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C315" s="4">
+      <c r="C315" s="7">
         <v>146908</v>
       </c>
       <c r="D315" t="s">
@@ -6860,7 +6956,7 @@
       <c r="B316" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C316" s="4">
+      <c r="C316" s="7">
         <v>146908</v>
       </c>
       <c r="D316" t="s">
@@ -6877,7 +6973,7 @@
       <c r="B317" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C317" s="4">
+      <c r="C317" s="7">
         <v>146908</v>
       </c>
       <c r="D317" t="s">
@@ -6894,7 +6990,7 @@
       <c r="B318" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C318" s="4">
+      <c r="C318" s="7">
         <v>149609</v>
       </c>
       <c r="D318" t="s">
@@ -6911,7 +7007,7 @@
       <c r="B319" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C319" s="4">
+      <c r="C319" s="7">
         <v>146908</v>
       </c>
       <c r="D319" t="s">
@@ -6928,7 +7024,7 @@
       <c r="B320" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C320" s="4">
+      <c r="C320" s="7">
         <v>146908</v>
       </c>
       <c r="D320" t="s">
@@ -6945,7 +7041,7 @@
       <c r="B321" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C321" s="4">
+      <c r="C321" s="7">
         <v>146998</v>
       </c>
       <c r="D321" t="s">
@@ -6962,7 +7058,7 @@
       <c r="B322" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C322" s="4">
+      <c r="C322" s="7">
         <v>146998</v>
       </c>
       <c r="D322" t="s">
@@ -6979,7 +7075,7 @@
       <c r="B323" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C323" s="4">
+      <c r="C323" s="7">
         <v>146998</v>
       </c>
       <c r="D323" t="s">
@@ -6996,7 +7092,7 @@
       <c r="B324" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C324" s="4">
+      <c r="C324" s="7">
         <v>149791</v>
       </c>
       <c r="D324" t="s">
@@ -7013,7 +7109,7 @@
       <c r="B325" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325" s="7">
         <v>174678</v>
       </c>
       <c r="D325" t="s">
@@ -7030,7 +7126,7 @@
       <c r="B326" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C326" s="7">
         <v>174678</v>
       </c>
       <c r="D326" t="s">
@@ -7047,7 +7143,7 @@
       <c r="B327" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C327" s="4">
+      <c r="C327" s="7">
         <v>177657</v>
       </c>
       <c r="D327" t="s">
@@ -7064,7 +7160,7 @@
       <c r="B328" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C328" s="4">
+      <c r="C328" s="7">
         <v>174678</v>
       </c>
       <c r="D328" t="s">
@@ -7081,7 +7177,7 @@
       <c r="B329" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C329" s="7">
         <v>174678</v>
       </c>
       <c r="D329" t="s">
@@ -7098,7 +7194,7 @@
       <c r="B330" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C330" s="7">
         <v>179198</v>
       </c>
       <c r="D330" t="s">
@@ -7115,7 +7211,7 @@
       <c r="B331" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C331" s="7">
         <v>179198</v>
       </c>
       <c r="D331" t="s">
@@ -7132,7 +7228,7 @@
       <c r="B332" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C332" s="7">
         <v>179198</v>
       </c>
       <c r="D332" t="s">
@@ -7149,7 +7245,7 @@
       <c r="B333" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C333" s="4">
+      <c r="C333" s="7">
         <v>182269</v>
       </c>
       <c r="D333" t="s">
@@ -7166,7 +7262,7 @@
       <c r="B334" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C334" s="7">
         <v>179198</v>
       </c>
       <c r="D334" t="s">
@@ -7183,7 +7279,7 @@
       <c r="B335" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C335" s="4">
+      <c r="C335" s="7">
         <v>179198</v>
       </c>
       <c r="D335" t="s">
@@ -7200,7 +7296,7 @@
       <c r="B336" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C336" s="7">
         <v>188928</v>
       </c>
       <c r="D336" t="s">
@@ -7210,14 +7306,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C337" s="7">
         <v>188928</v>
       </c>
       <c r="D337" t="s">
@@ -7227,14 +7323,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C338" s="7">
         <v>192092</v>
       </c>
       <c r="D338" t="s">
@@ -7244,14 +7340,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C339" s="4">
+      <c r="C339" s="7">
         <v>188928</v>
       </c>
       <c r="D339" t="s">
@@ -7261,14 +7357,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C340" s="4">
+      <c r="C340" s="7">
         <v>188928</v>
       </c>
       <c r="D340" t="s">
@@ -7276,6 +7372,206 @@
       </c>
       <c r="E340" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C341" s="10">
+        <v>89782</v>
+      </c>
+      <c r="D341" t="s">
+        <v>376</v>
+      </c>
+      <c r="E341" t="s">
+        <v>349</v>
+      </c>
+      <c r="F341" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C342" s="10">
+        <v>74536</v>
+      </c>
+      <c r="D342" t="s">
+        <v>376</v>
+      </c>
+      <c r="E342" t="s">
+        <v>349</v>
+      </c>
+      <c r="F342" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C343" s="10">
+        <v>50820</v>
+      </c>
+      <c r="D343" t="s">
+        <v>376</v>
+      </c>
+      <c r="E343" t="s">
+        <v>349</v>
+      </c>
+      <c r="F343" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C344" s="10">
+        <v>37268</v>
+      </c>
+      <c r="D344" t="s">
+        <v>377</v>
+      </c>
+      <c r="E344" t="s">
+        <v>349</v>
+      </c>
+      <c r="F344" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C345" s="10">
+        <v>42000</v>
+      </c>
+      <c r="D345" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E345" t="s">
+        <v>349</v>
+      </c>
+      <c r="F345" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C346" s="10">
+        <v>45738</v>
+      </c>
+      <c r="D346" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E346" t="s">
+        <v>349</v>
+      </c>
+      <c r="F346" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C347" s="10">
+        <v>45738</v>
+      </c>
+      <c r="D347" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E347" t="s">
+        <v>349</v>
+      </c>
+      <c r="F347" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C348" s="10">
+        <v>50820</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E348" t="s">
+        <v>349</v>
+      </c>
+      <c r="F348" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C349" s="10">
+        <v>69999</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E349" t="s">
+        <v>349</v>
+      </c>
+      <c r="F349" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C350" s="10">
+        <v>34000</v>
+      </c>
+      <c r="D350" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E350" t="s">
+        <v>349</v>
+      </c>
+      <c r="F350" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="393">
   <si>
     <t>Almohada Venecia 0.65 Inducol 1 UN</t>
   </si>
@@ -1100,36 +1100,6 @@
     <t>INDUCOL</t>
   </si>
   <si>
-    <t>[601350] Juego de Cocina DAEWOO 7 Pzas (ø24,20,18 y sarten ø24) Antiadherente DWL-SET7</t>
-  </si>
-  <si>
-    <t>[602241] Juego de Cocina DAEWOO 5 Pzas (ø24,16 y sarten ø24)  Antiadherente DWL-SET5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[600145] Jgo. Cub DYNAMIC TRAMONTINA (6Cuch+6Ten)Mango Madera (22399/030)x 12 </t>
-  </si>
-  <si>
-    <t>[602535] Cubiertos Acero Inox  Juego BUZIOS Tramontina x 24 Pzas(23799)</t>
-  </si>
-  <si>
-    <t>[602410] Cafetera WhitenBlack  c/ filtro removible 1.5L 1000W (WBACWBA02)</t>
-  </si>
-  <si>
-    <t>[602528] Pava Elect ATMA PE1821AP2 1,7 lt -Selec Temp</t>
-  </si>
-  <si>
-    <t>[601890] Sandwichera SMARTLIFE electrica SL-SW3383</t>
-  </si>
-  <si>
-    <t>[601882] Batidora de mano SMARTLIFE SL-HM1035 (PN)</t>
-  </si>
-  <si>
-    <t>[602117] Batidora LILIANA c/ Bowl "Giramix" 450 W ( AAB102 )</t>
-  </si>
-  <si>
-    <t>[601194] Exprimidor de Citricos OSTER SL-JC3400</t>
-  </si>
-  <si>
     <t>DAEWOO</t>
   </si>
   <si>
@@ -1173,15 +1143,74 @@
   </si>
   <si>
     <t>Exprimidor</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XDWGCE1.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/bHqFsZL.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/BnlMvvZ.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xoOeXeB.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fDqC38C.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Ni2qK7S.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HEzen2o.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/okMRIfQ.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Hvk83BU.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xowccjO.png</t>
+  </si>
+  <si>
+    <t>Juego de Cocina DAEWOO 7 Pzas (ø24,20,18 y sarten ø24) Antiadherente DWL-SET7</t>
+  </si>
+  <si>
+    <t>Juego de Cocina DAEWOO 5 Pzas (ø24,16 y sarten ø24)  Antiadherente DWL-SET5</t>
+  </si>
+  <si>
+    <t>Jgo. Cub DYNAMIC TRAMONTINA (6Cuch+6Ten)Mango Madera (22399/030)x 12</t>
+  </si>
+  <si>
+    <t>Cubiertos Acero Inox  Juego BUZIOS Tramontina x 24 Pzas(23799)</t>
+  </si>
+  <si>
+    <t>Cafetera WhitenBlack  c/ filtro removible 1.5L 1000W (WBACWBA02)</t>
+  </si>
+  <si>
+    <t>Pava Elect ATMA PE1821AP2 1,7 lt -Selec Temp</t>
+  </si>
+  <si>
+    <t>Sandwichera SMARTLIFE electrica SL-SW3383</t>
+  </si>
+  <si>
+    <t>Batidora de mano SMARTLIFE SL-HM1035 (PN)</t>
+  </si>
+  <si>
+    <t>Batidora LILIANA c/ Bowl "Giramix" 450 W ( AAB102 )</t>
+  </si>
+  <si>
+    <t>Exprimidor de Citricos OSTER SL-JC3400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1258,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1557,15 +1586,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:F350"/>
+  <dimension ref="A1:I350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="A341" sqref="A341"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -7306,7 +7335,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
@@ -7323,7 +7352,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
@@ -7340,7 +7369,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
@@ -7357,7 +7386,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
@@ -7374,205 +7403,215 @@
         <v>348</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="3" t="s">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C341" s="10">
         <v>89782</v>
       </c>
       <c r="D341" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E341" t="s">
         <v>349</v>
       </c>
       <c r="F341" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="3" t="s">
-        <v>359</v>
+        <v>373</v>
+      </c>
+      <c r="I341" s="3"/>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C342" s="10">
         <v>74536</v>
       </c>
       <c r="D342" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E342" t="s">
         <v>349</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="3" t="s">
-        <v>360</v>
+        <v>374</v>
+      </c>
+      <c r="I342" s="3"/>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C343" s="10">
         <v>50820</v>
       </c>
       <c r="D343" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E343" t="s">
         <v>349</v>
       </c>
       <c r="F343" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="3" t="s">
-        <v>361</v>
+        <v>375</v>
+      </c>
+      <c r="I343" s="3"/>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C344" s="10">
         <v>37268</v>
       </c>
       <c r="D344" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E344" t="s">
         <v>349</v>
       </c>
       <c r="F344" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
-        <v>362</v>
+        <v>376</v>
+      </c>
+      <c r="I344" s="3"/>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C345" s="10">
         <v>42000</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E345" t="s">
         <v>349</v>
       </c>
       <c r="F345" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="3" t="s">
-        <v>363</v>
+        <v>377</v>
+      </c>
+      <c r="I345" s="4"/>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C346" s="10">
         <v>45738</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E346" t="s">
         <v>349</v>
       </c>
       <c r="F346" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="3" t="s">
-        <v>364</v>
+        <v>378</v>
+      </c>
+      <c r="I346" s="3"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C347" s="10">
         <v>45738</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E347" t="s">
         <v>349</v>
       </c>
       <c r="F347" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="3" t="s">
-        <v>365</v>
+        <v>379</v>
+      </c>
+      <c r="I347" s="3"/>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C348" s="10">
         <v>50820</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E348" t="s">
         <v>349</v>
       </c>
       <c r="F348" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="3" t="s">
-        <v>366</v>
+        <v>380</v>
+      </c>
+      <c r="I348" s="3"/>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C349" s="10">
         <v>69999</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E349" t="s">
         <v>349</v>
       </c>
       <c r="F349" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="3" t="s">
-        <v>367</v>
+        <v>381</v>
+      </c>
+      <c r="I349" s="3"/>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C350" s="10">
         <v>34000</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E350" t="s">
         <v>349</v>
       </c>
       <c r="F350" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="I350" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -1589,7 +1589,7 @@
   <dimension ref="A1:I350"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="A342" sqref="A342"/>
+      <selection activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7411,7 +7411,7 @@
         <v>358</v>
       </c>
       <c r="C341" s="10">
-        <v>89782</v>
+        <v>89799</v>
       </c>
       <c r="D341" t="s">
         <v>366</v>

--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adr\Desktop\colchonespremium2\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\colchonespremium2\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8277F9DB-64D6-4082-B21D-1479BE2099FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$350</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="403">
   <si>
     <t>Almohada Venecia 0.65 Inducol 1 UN</t>
   </si>
@@ -1203,16 +1207,46 @@
   </si>
   <si>
     <t>Exprimidor de Citricos OSTER SL-JC3400</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/kov6hJb.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/sB8J3mh.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xi5DdKA.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/hLia8kw.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/ir3QsVn.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/X1ietGW.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/OnpR1SD.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XSpZI3X.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YfRWnb8.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6lAeGoj.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1253,6 +1287,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1283,31 +1325,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Moneda 2" xfId="2"/>
-    <cellStyle name="Moneda 3" xfId="3"/>
+  <cellStyles count="5">
+    <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
+    <cellStyle name="Moneda 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Moneda 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1584,29 +1624,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="C341" sqref="C341"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F341" sqref="F341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>340</v>
       </c>
       <c r="B1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>339</v>
       </c>
       <c r="D1" t="s">
@@ -1619,14 +1660,14 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="1">
         <v>11234</v>
       </c>
       <c r="D2" t="s">
@@ -1639,14 +1680,14 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="1">
         <v>12426</v>
       </c>
       <c r="D3" t="s">
@@ -1659,14 +1700,14 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="1">
         <v>14370</v>
       </c>
       <c r="D4" t="s">
@@ -1679,14 +1720,14 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="1">
         <v>11869</v>
       </c>
       <c r="D5" t="s">
@@ -1696,14 +1737,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>12726</v>
       </c>
       <c r="D6" t="s">
@@ -1713,14 +1754,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="1">
         <v>14441</v>
       </c>
       <c r="D7" t="s">
@@ -1730,14 +1771,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="1">
         <v>16157</v>
       </c>
       <c r="D8" t="s">
@@ -1747,14 +1788,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="1">
         <v>17872</v>
       </c>
       <c r="D9" t="s">
@@ -1764,14 +1805,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="1">
         <v>23017</v>
       </c>
       <c r="D10" t="s">
@@ -1781,14 +1822,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="1">
         <v>24732</v>
       </c>
       <c r="D11" t="s">
@@ -1798,14 +1839,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="1">
         <v>30457</v>
       </c>
       <c r="D12" t="s">
@@ -1815,14 +1856,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="1">
         <v>34593</v>
       </c>
       <c r="D13" t="s">
@@ -1832,14 +1873,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="1">
         <v>38729</v>
       </c>
       <c r="D14" t="s">
@@ -1849,14 +1890,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="1">
         <v>8180</v>
       </c>
       <c r="D15" t="s">
@@ -1866,14 +1907,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="1">
         <v>8776</v>
       </c>
       <c r="D16" t="s">
@@ -1883,14 +1924,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="1">
         <v>9969</v>
       </c>
       <c r="D17" t="s">
@@ -1900,14 +1941,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="1">
         <v>11161</v>
       </c>
       <c r="D18" t="s">
@@ -1917,14 +1958,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="1">
         <v>12353</v>
       </c>
       <c r="D19" t="s">
@@ -1934,14 +1975,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="1">
         <v>15931</v>
       </c>
       <c r="D20" t="s">
@@ -1951,14 +1992,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="1">
         <v>17123</v>
       </c>
       <c r="D21" t="s">
@@ -1968,14 +2009,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="1">
         <v>17574</v>
       </c>
       <c r="D22" t="s">
@@ -1985,14 +2026,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="1">
         <v>114322</v>
       </c>
       <c r="D23" t="s">
@@ -2002,14 +2043,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="1">
         <v>114322</v>
       </c>
       <c r="D24" t="s">
@@ -2019,14 +2060,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="1">
         <v>114322</v>
       </c>
       <c r="D25" t="s">
@@ -2036,14 +2077,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="1">
         <v>127371</v>
       </c>
       <c r="D26" t="s">
@@ -2053,14 +2094,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="1">
         <v>127452</v>
       </c>
       <c r="D27" t="s">
@@ -2070,14 +2111,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="1">
         <v>142059</v>
       </c>
       <c r="D28" t="s">
@@ -2087,14 +2128,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="1">
         <v>140822</v>
       </c>
       <c r="D29" t="s">
@@ -2104,14 +2145,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="1">
         <v>140822</v>
       </c>
       <c r="D30" t="s">
@@ -2121,14 +2162,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="1">
         <v>140822</v>
       </c>
       <c r="D31" t="s">
@@ -2138,14 +2179,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="1">
         <v>156986</v>
       </c>
       <c r="D32" t="s">
@@ -2155,14 +2196,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="1">
         <v>180452</v>
       </c>
       <c r="D33" t="s">
@@ -2172,14 +2213,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="1">
         <v>201291</v>
       </c>
       <c r="D34" t="s">
@@ -2189,14 +2230,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="1">
         <v>193821</v>
       </c>
       <c r="D35" t="s">
@@ -2206,14 +2247,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="1">
         <v>216218</v>
       </c>
       <c r="D36" t="s">
@@ -2223,14 +2264,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="1">
         <v>230986</v>
       </c>
       <c r="D37" t="s">
@@ -2240,14 +2281,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="1">
         <v>278628</v>
       </c>
       <c r="D38" t="s">
@@ -2257,14 +2298,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="1">
         <v>319506</v>
       </c>
       <c r="D39" t="s">
@@ -2274,14 +2315,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="1">
         <v>346374</v>
       </c>
       <c r="D40" t="s">
@@ -2291,14 +2332,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="1">
         <v>357156</v>
       </c>
       <c r="D41" t="s">
@@ -2308,14 +2349,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="1">
         <v>455107</v>
       </c>
       <c r="D42" t="s">
@@ -2325,14 +2366,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="1">
         <v>468491</v>
       </c>
       <c r="D43" t="s">
@@ -2342,14 +2383,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="1">
         <v>468491</v>
       </c>
       <c r="D44" t="s">
@@ -2359,14 +2400,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="1">
         <v>535065</v>
       </c>
       <c r="D45" t="s">
@@ -2376,14 +2417,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="1">
         <v>553611</v>
       </c>
       <c r="D46" t="s">
@@ -2393,14 +2434,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="1">
         <v>664987</v>
       </c>
       <c r="D47" t="s">
@@ -2410,14 +2451,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="1">
         <v>695237</v>
       </c>
       <c r="D48" t="s">
@@ -2427,14 +2468,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="1">
         <v>74607</v>
       </c>
       <c r="D49" t="s">
@@ -2444,14 +2485,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="1">
         <v>94096</v>
       </c>
       <c r="D50" t="s">
@@ -2461,14 +2502,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="1">
         <v>105063</v>
       </c>
       <c r="D51" t="s">
@@ -2478,14 +2519,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="1">
         <v>116030</v>
       </c>
       <c r="D52" t="s">
@@ -2495,14 +2536,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="1">
         <v>155974</v>
       </c>
       <c r="D53" t="s">
@@ -2512,14 +2553,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="1">
         <v>159898</v>
       </c>
       <c r="D54" t="s">
@@ -2529,14 +2570,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="1">
         <v>33901</v>
       </c>
       <c r="D55" t="s">
@@ -2546,14 +2587,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="1">
         <v>35168</v>
       </c>
       <c r="D56" t="s">
@@ -2563,14 +2604,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="1">
         <v>36339</v>
       </c>
       <c r="D57" t="s">
@@ -2580,14 +2621,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="1">
         <v>33333</v>
       </c>
       <c r="D58" t="s">
@@ -2597,14 +2638,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="1">
         <v>46969</v>
       </c>
       <c r="D59" t="s">
@@ -2614,14 +2655,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="1">
         <v>42036</v>
       </c>
       <c r="D60" t="s">
@@ -2631,14 +2672,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="1">
         <v>55374</v>
       </c>
       <c r="D61" t="s">
@@ -2648,14 +2689,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="1">
         <v>51058</v>
       </c>
       <c r="D62" t="s">
@@ -2665,14 +2706,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="1">
         <v>51865</v>
       </c>
       <c r="D63" t="s">
@@ -2682,14 +2723,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="1">
         <v>46730</v>
       </c>
       <c r="D64" t="s">
@@ -2699,14 +2740,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="1">
         <v>31613</v>
       </c>
       <c r="D65" t="s">
@@ -2716,14 +2757,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="1">
         <v>42378</v>
       </c>
       <c r="D66" t="s">
@@ -2733,14 +2774,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="1">
         <v>30543</v>
       </c>
       <c r="D67" t="s">
@@ -2750,14 +2791,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="1">
         <v>65818</v>
       </c>
       <c r="D68" t="s">
@@ -2767,14 +2808,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="1">
         <v>46051</v>
       </c>
       <c r="D69" t="s">
@@ -2784,14 +2825,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="1">
         <v>118829</v>
       </c>
       <c r="D70" t="s">
@@ -2801,14 +2842,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="1">
         <v>97430</v>
       </c>
       <c r="D71" t="s">
@@ -2818,14 +2859,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="1">
         <v>172073</v>
       </c>
       <c r="D72" t="s">
@@ -2835,14 +2876,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="1">
         <v>192124</v>
       </c>
       <c r="D73" t="s">
@@ -2852,14 +2893,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="1">
         <v>212409</v>
       </c>
       <c r="D74" t="s">
@@ -2869,14 +2910,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="1">
         <v>283611</v>
       </c>
       <c r="D75" t="s">
@@ -2886,14 +2927,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="1">
         <v>281982</v>
       </c>
       <c r="D76" t="s">
@@ -2903,14 +2944,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="1">
         <v>293081</v>
       </c>
       <c r="D77" t="s">
@@ -2920,14 +2961,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="1">
         <v>170633</v>
       </c>
       <c r="D78" t="s">
@@ -2937,14 +2978,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="1">
         <v>199388</v>
       </c>
       <c r="D79" t="s">
@@ -2954,14 +2995,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="1">
         <v>190309</v>
       </c>
       <c r="D80" t="s">
@@ -2971,14 +3012,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="1">
         <v>222529</v>
       </c>
       <c r="D81" t="s">
@@ -2988,14 +3029,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="1">
         <v>210250</v>
       </c>
       <c r="D82" t="s">
@@ -3005,14 +3046,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="1">
         <v>245935</v>
       </c>
       <c r="D83" t="s">
@@ -3022,14 +3063,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="1">
         <v>217893</v>
       </c>
       <c r="D84" t="s">
@@ -3039,14 +3080,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="1">
         <v>255423</v>
       </c>
       <c r="D85" t="s">
@@ -3056,14 +3097,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="1">
         <v>269543</v>
       </c>
       <c r="D86" t="s">
@@ -3073,14 +3114,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="1">
         <v>315623</v>
       </c>
       <c r="D87" t="s">
@@ -3090,14 +3131,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="1">
         <v>289484</v>
       </c>
       <c r="D88" t="s">
@@ -3107,31 +3148,34 @@
         <v>348</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="1">
         <v>339029</v>
       </c>
       <c r="D89" t="s">
         <v>344</v>
       </c>
       <c r="E89" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F89" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="1">
         <v>309248</v>
       </c>
       <c r="D90" t="s">
@@ -3141,14 +3185,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="1">
         <v>362258</v>
       </c>
       <c r="D91" t="s">
@@ -3158,14 +3202,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="1">
         <v>341052</v>
       </c>
       <c r="D92" t="s">
@@ -3175,14 +3219,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="1">
         <v>400452</v>
       </c>
       <c r="D93" t="s">
@@ -3192,14 +3236,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="1">
         <v>212638</v>
       </c>
       <c r="D94" t="s">
@@ -3209,14 +3253,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="1">
         <v>237447</v>
       </c>
       <c r="D95" t="s">
@@ -3226,14 +3270,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="1">
         <v>262518</v>
       </c>
       <c r="D96" t="s">
@@ -3243,14 +3287,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="1">
         <v>272988</v>
       </c>
       <c r="D97" t="s">
@@ -3260,14 +3304,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="1">
         <v>337208</v>
       </c>
       <c r="D98" t="s">
@@ -3277,14 +3321,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="1">
         <v>362279</v>
       </c>
       <c r="D99" t="s">
@@ -3294,14 +3338,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="1">
         <v>387176</v>
       </c>
       <c r="D100" t="s">
@@ -3311,14 +3355,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="1">
         <v>428610</v>
       </c>
       <c r="D101" t="s">
@@ -3328,14 +3372,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="1">
         <v>480309</v>
       </c>
       <c r="D102" t="s">
@@ -3345,14 +3389,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="1">
         <v>531398</v>
       </c>
       <c r="D103" t="s">
@@ -3362,14 +3406,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="1">
         <v>253222</v>
       </c>
       <c r="D104" t="s">
@@ -3379,14 +3423,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="1">
         <v>285215</v>
       </c>
       <c r="D105" t="s">
@@ -3396,14 +3440,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="1">
         <v>312121</v>
       </c>
       <c r="D106" t="s">
@@ -3413,14 +3457,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="1">
         <v>322869</v>
       </c>
       <c r="D107" t="s">
@@ -3430,14 +3474,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="1">
         <v>416209</v>
       </c>
       <c r="D108" t="s">
@@ -3447,14 +3491,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="1">
         <v>423848</v>
       </c>
       <c r="D109" t="s">
@@ -3464,14 +3508,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="1">
         <v>488697</v>
       </c>
       <c r="D110" t="s">
@@ -3481,14 +3525,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="1">
         <v>501173</v>
       </c>
       <c r="D111" t="s">
@@ -3498,14 +3542,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="1">
         <v>570082</v>
       </c>
       <c r="D112" t="s">
@@ -3515,14 +3559,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="1">
         <v>622649</v>
       </c>
       <c r="D113" t="s">
@@ -3532,65 +3576,74 @@
         <v>348</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="1">
         <v>177811</v>
       </c>
       <c r="D114" t="s">
         <v>344</v>
       </c>
       <c r="E114" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F114" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="1">
         <v>202415</v>
       </c>
       <c r="D115" t="s">
         <v>344</v>
       </c>
       <c r="E115" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F115" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="1">
         <v>220998</v>
       </c>
       <c r="D116" t="s">
         <v>344</v>
       </c>
       <c r="E116" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F116" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="1">
         <v>221059</v>
       </c>
       <c r="D117" t="s">
@@ -3600,14 +3653,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="1">
         <v>284045</v>
       </c>
       <c r="D118" t="s">
@@ -3617,14 +3670,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="1">
         <v>280775</v>
       </c>
       <c r="D119" t="s">
@@ -3634,14 +3687,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="1">
         <v>324844</v>
       </c>
       <c r="D120" t="s">
@@ -3651,14 +3704,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="1">
         <v>326951</v>
       </c>
       <c r="D121" t="s">
@@ -3668,14 +3721,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="1">
         <v>363922</v>
       </c>
       <c r="D122" t="s">
@@ -3685,14 +3738,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="1">
         <v>398113</v>
       </c>
       <c r="D123" t="s">
@@ -3702,14 +3755,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="1">
         <v>207802</v>
       </c>
       <c r="D124" t="s">
@@ -3719,14 +3772,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="1">
         <v>246716</v>
       </c>
       <c r="D125" t="s">
@@ -3736,14 +3789,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="1">
         <v>253827</v>
       </c>
       <c r="D126" t="s">
@@ -3753,14 +3806,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="1">
         <v>303162</v>
       </c>
       <c r="D127" t="s">
@@ -3770,14 +3823,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="1">
         <v>263986</v>
       </c>
       <c r="D128" t="s">
@@ -3787,14 +3840,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="1">
         <v>314102</v>
       </c>
       <c r="D129" t="s">
@@ -3804,14 +3857,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="1">
         <v>266260</v>
       </c>
       <c r="D130" t="s">
@@ -3821,14 +3874,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="1">
         <v>316828</v>
       </c>
       <c r="D131" t="s">
@@ -3838,14 +3891,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="1">
         <v>334385</v>
       </c>
       <c r="D132" t="s">
@@ -3855,14 +3908,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="1">
         <v>397643</v>
       </c>
       <c r="D133" t="s">
@@ -3872,14 +3925,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="1">
         <v>344544</v>
       </c>
       <c r="D134" t="s">
@@ -3889,14 +3942,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="1">
         <v>408583</v>
       </c>
       <c r="D135" t="s">
@@ -3906,14 +3959,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="1">
         <v>393555</v>
       </c>
       <c r="D136" t="s">
@@ -3923,14 +3976,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="1">
         <v>468787</v>
       </c>
       <c r="D137" t="s">
@@ -3940,14 +3993,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="1">
         <v>406993</v>
       </c>
       <c r="D138" t="s">
@@ -3957,14 +4010,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="1">
         <v>483678</v>
       </c>
       <c r="D139" t="s">
@@ -3974,14 +4027,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="1">
         <v>499505</v>
       </c>
       <c r="D140" t="s">
@@ -3991,14 +4044,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="1">
         <v>597105</v>
       </c>
       <c r="D141" t="s">
@@ -4008,14 +4061,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="1">
         <v>519064</v>
       </c>
       <c r="D142" t="s">
@@ -4025,14 +4078,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="1">
         <v>618300</v>
       </c>
       <c r="D143" t="s">
@@ -4042,14 +4095,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="1">
         <v>283561</v>
       </c>
       <c r="D144" t="s">
@@ -4059,14 +4112,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="1">
         <v>325136</v>
       </c>
       <c r="D145" t="s">
@@ -4076,14 +4129,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="1">
         <v>351893</v>
       </c>
       <c r="D146" t="s">
@@ -4093,14 +4146,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="1">
         <v>362030</v>
       </c>
       <c r="D147" t="s">
@@ -4110,14 +4163,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="1">
         <v>447651</v>
       </c>
       <c r="D148" t="s">
@@ -4127,14 +4180,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C149" s="7">
+      <c r="C149" s="1">
         <v>474408</v>
       </c>
       <c r="D149" t="s">
@@ -4144,14 +4197,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="1">
         <v>474408</v>
       </c>
       <c r="D150" t="s">
@@ -4161,14 +4214,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151" s="1">
         <v>516889</v>
       </c>
       <c r="D151" t="s">
@@ -4178,14 +4231,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="1">
         <v>559032</v>
       </c>
       <c r="D152" t="s">
@@ -4195,14 +4248,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="1">
         <v>643214</v>
       </c>
       <c r="D153" t="s">
@@ -4212,14 +4265,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="1">
         <v>696047</v>
       </c>
       <c r="D154" t="s">
@@ -4229,14 +4282,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="1">
         <v>337735</v>
       </c>
       <c r="D155" t="s">
@@ -4246,14 +4299,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="1">
         <v>385733</v>
       </c>
       <c r="D156" t="s">
@@ -4263,14 +4316,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="1">
         <v>418124</v>
       </c>
       <c r="D157" t="s">
@@ -4280,14 +4333,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="1">
         <v>428277</v>
       </c>
       <c r="D158" t="s">
@@ -4297,14 +4350,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159" s="1">
         <v>530897</v>
       </c>
       <c r="D159" t="s">
@@ -4314,14 +4367,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160" s="1">
         <v>563288</v>
       </c>
       <c r="D160" t="s">
@@ -4331,14 +4384,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="1">
         <v>563288</v>
       </c>
       <c r="D161" t="s">
@@ -4348,14 +4401,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="1">
         <v>611505</v>
       </c>
       <c r="D162" t="s">
@@ -4365,14 +4418,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C163" s="7">
+      <c r="C163" s="1">
         <v>659315</v>
       </c>
       <c r="D163" t="s">
@@ -4382,14 +4435,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="1">
         <v>754961</v>
       </c>
       <c r="D164" t="s">
@@ -4399,14 +4452,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165" s="1">
         <v>819088</v>
       </c>
       <c r="D165" t="s">
@@ -4416,14 +4469,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="1">
         <v>144470</v>
       </c>
       <c r="D166" t="s">
@@ -4433,14 +4486,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="1">
         <v>159156</v>
       </c>
       <c r="D167" t="s">
@@ -4450,14 +4503,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168" s="1">
         <v>147520</v>
       </c>
       <c r="D168" t="s">
@@ -4467,14 +4520,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169" s="1">
         <v>162563</v>
       </c>
       <c r="D169" t="s">
@@ -4484,14 +4537,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="1">
         <v>160825</v>
       </c>
       <c r="D170" t="s">
@@ -4501,14 +4554,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="1">
         <v>177691</v>
       </c>
       <c r="D171" t="s">
@@ -4518,14 +4571,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172" s="1">
         <v>89949</v>
       </c>
       <c r="D172" t="s">
@@ -4535,14 +4588,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="2">
         <v>101052</v>
       </c>
       <c r="D173" t="s">
@@ -4555,14 +4608,14 @@
         <v>351</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="1">
         <v>126340</v>
       </c>
       <c r="D174" t="s">
@@ -4572,14 +4625,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="1">
         <v>139495</v>
       </c>
       <c r="D175" t="s">
@@ -4589,14 +4642,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="1">
         <v>178961</v>
       </c>
       <c r="D176" t="s">
@@ -4606,14 +4659,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C177" s="1">
         <v>192116</v>
       </c>
       <c r="D177" t="s">
@@ -4623,14 +4676,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C178" s="9">
+      <c r="C178" s="2">
         <v>101179</v>
       </c>
       <c r="D178" t="s">
@@ -4643,14 +4696,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="1">
         <v>172127</v>
       </c>
       <c r="D179" t="s">
@@ -4660,14 +4713,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="1">
         <v>51098</v>
       </c>
       <c r="D180" t="s">
@@ -4677,14 +4730,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181" s="1">
         <v>57696</v>
       </c>
       <c r="D181" t="s">
@@ -4694,14 +4747,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="1">
         <v>64501</v>
       </c>
       <c r="D182" t="s">
@@ -4711,14 +4764,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C183" s="9">
+      <c r="C183" s="2">
         <v>71928</v>
       </c>
       <c r="D183" t="s">
@@ -4731,14 +4784,14 @@
         <v>353</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="1">
         <v>57389</v>
       </c>
       <c r="D184" t="s">
@@ -4748,14 +4801,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C185" s="7">
+      <c r="C185" s="1">
         <v>64947</v>
       </c>
       <c r="D185" t="s">
@@ -4765,14 +4818,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="1">
         <v>72136</v>
       </c>
       <c r="D186" t="s">
@@ -4782,14 +4835,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C187" s="1">
         <v>80349</v>
       </c>
       <c r="D187" t="s">
@@ -4799,14 +4852,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188" s="1">
         <v>63401</v>
       </c>
       <c r="D188" t="s">
@@ -4816,14 +4869,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C189" s="1">
         <v>71673</v>
       </c>
       <c r="D189" t="s">
@@ -4833,14 +4886,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="1">
         <v>79770</v>
       </c>
       <c r="D190" t="s">
@@ -4850,14 +4903,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C191" s="7">
+      <c r="C191" s="1">
         <v>88770</v>
       </c>
       <c r="D191" t="s">
@@ -4867,14 +4920,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C192" s="1">
         <v>81437</v>
       </c>
       <c r="D192" t="s">
@@ -4884,14 +4937,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C193" s="1">
         <v>91853</v>
       </c>
       <c r="D193" t="s">
@@ -4901,14 +4954,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="1">
         <v>102673</v>
       </c>
       <c r="D194" t="s">
@@ -4918,14 +4971,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C195" s="7">
+      <c r="C195" s="1">
         <v>114033</v>
       </c>
       <c r="D195" t="s">
@@ -4935,14 +4988,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C196" s="7">
+      <c r="C196" s="1">
         <v>87449</v>
       </c>
       <c r="D196" t="s">
@@ -4952,14 +5005,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C197" s="7">
+      <c r="C197" s="1">
         <v>98579</v>
       </c>
       <c r="D197" t="s">
@@ -4969,14 +5022,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="1">
         <v>110307</v>
       </c>
       <c r="D198" t="s">
@@ -4986,14 +5039,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C199" s="9">
+      <c r="C199" s="2">
         <v>122454</v>
       </c>
       <c r="D199" t="s">
@@ -5006,14 +5059,14 @@
         <v>354</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="1">
         <v>112747</v>
       </c>
       <c r="D200" t="s">
@@ -5023,14 +5076,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="1">
         <v>561093</v>
       </c>
       <c r="D201" t="s">
@@ -5040,14 +5093,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="1">
         <v>624146</v>
       </c>
       <c r="D202" t="s">
@@ -5057,14 +5110,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203" s="1">
         <v>368163</v>
       </c>
       <c r="D203" t="s">
@@ -5074,14 +5127,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204" s="1">
         <v>405591</v>
       </c>
       <c r="D204" t="s">
@@ -5091,14 +5144,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C205" s="7">
+      <c r="C205" s="1">
         <v>440324</v>
       </c>
       <c r="D205" t="s">
@@ -5108,14 +5161,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="1">
         <v>450149</v>
       </c>
       <c r="D206" t="s">
@@ -5125,14 +5178,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="1">
         <v>573178</v>
       </c>
       <c r="D207" t="s">
@@ -5142,31 +5195,34 @@
         <v>348</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208" s="1">
         <v>585380</v>
       </c>
       <c r="D208" t="s">
         <v>345</v>
       </c>
       <c r="E208" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F208" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209" s="1">
         <v>657677</v>
       </c>
       <c r="D209" t="s">
@@ -5176,14 +5232,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="1">
         <v>729273</v>
       </c>
       <c r="D210" t="s">
@@ -5193,14 +5249,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C211" s="1">
         <v>809225</v>
       </c>
       <c r="D211" t="s">
@@ -5210,14 +5266,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C212" s="7">
+      <c r="C212" s="1">
         <v>877208</v>
       </c>
       <c r="D212" t="s">
@@ -5227,31 +5283,34 @@
         <v>348</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C213" s="7">
+      <c r="C213" s="1">
         <v>204699</v>
       </c>
       <c r="D213" t="s">
         <v>344</v>
       </c>
       <c r="E213" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F213" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="1">
         <v>204699</v>
       </c>
       <c r="D214" t="s">
@@ -5261,14 +5320,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C215" s="7">
+      <c r="C215" s="1">
         <v>204699</v>
       </c>
       <c r="D215" t="s">
@@ -5278,14 +5337,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C216" s="7">
+      <c r="C216" s="1">
         <v>224160</v>
       </c>
       <c r="D216" t="s">
@@ -5295,14 +5354,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C217" s="7">
+      <c r="C217" s="1">
         <v>224160</v>
       </c>
       <c r="D217" t="s">
@@ -5312,14 +5371,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="1">
         <v>224160</v>
       </c>
       <c r="D218" t="s">
@@ -5329,14 +5388,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C219" s="7">
+      <c r="C219" s="1">
         <v>242513</v>
       </c>
       <c r="D219" t="s">
@@ -5346,14 +5405,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C220" s="7">
+      <c r="C220" s="1">
         <v>242513</v>
       </c>
       <c r="D220" t="s">
@@ -5363,14 +5422,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C221" s="7">
+      <c r="C221" s="1">
         <v>242513</v>
       </c>
       <c r="D221" t="s">
@@ -5380,14 +5439,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C222" s="1">
         <v>257903</v>
       </c>
       <c r="D222" t="s">
@@ -5397,14 +5456,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C223" s="7">
+      <c r="C223" s="1">
         <v>257903</v>
       </c>
       <c r="D223" t="s">
@@ -5414,14 +5473,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C224" s="7">
+      <c r="C224" s="1">
         <v>257903</v>
       </c>
       <c r="D224" t="s">
@@ -5431,14 +5490,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C225" s="7">
+      <c r="C225" s="1">
         <v>307118</v>
       </c>
       <c r="D225" t="s">
@@ -5448,14 +5507,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C226" s="7">
+      <c r="C226" s="1">
         <v>307118</v>
       </c>
       <c r="D226" t="s">
@@ -5465,14 +5524,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C227" s="7">
+      <c r="C227" s="1">
         <v>307118</v>
       </c>
       <c r="D227" t="s">
@@ -5482,31 +5541,34 @@
         <v>348</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C228" s="7">
+      <c r="C228" s="1">
         <v>322649</v>
       </c>
       <c r="D228" t="s">
         <v>344</v>
       </c>
       <c r="E228" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F228" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C229" s="7">
+      <c r="C229" s="1">
         <v>322649</v>
       </c>
       <c r="D229" t="s">
@@ -5516,14 +5578,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C230" s="7">
+      <c r="C230" s="1">
         <v>322649</v>
       </c>
       <c r="D230" t="s">
@@ -5533,14 +5595,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C231" s="7">
+      <c r="C231" s="1">
         <v>348853</v>
       </c>
       <c r="D231" t="s">
@@ -5550,14 +5612,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C232" s="7">
+      <c r="C232" s="1">
         <v>348853</v>
       </c>
       <c r="D232" t="s">
@@ -5567,14 +5629,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C233" s="7">
+      <c r="C233" s="1">
         <v>348853</v>
       </c>
       <c r="D233" t="s">
@@ -5584,14 +5646,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C234" s="7">
+      <c r="C234" s="1">
         <v>375954</v>
       </c>
       <c r="D234" t="s">
@@ -5601,14 +5663,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C235" s="1">
         <v>375954</v>
       </c>
       <c r="D235" t="s">
@@ -5618,14 +5680,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C236" s="7">
+      <c r="C236" s="1">
         <v>375954</v>
       </c>
       <c r="D236" t="s">
@@ -5635,14 +5697,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C237" s="7">
+      <c r="C237" s="1">
         <v>189228</v>
       </c>
       <c r="D237" t="s">
@@ -5652,14 +5714,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="1">
         <v>207742</v>
       </c>
       <c r="D238" t="s">
@@ -5669,14 +5731,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C239" s="7">
+      <c r="C239" s="1">
         <v>225193</v>
       </c>
       <c r="D239" t="s">
@@ -5686,14 +5748,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C240" s="7">
+      <c r="C240" s="1">
         <v>243322</v>
       </c>
       <c r="D240" t="s">
@@ -5703,14 +5765,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C241" s="7">
+      <c r="C241" s="1">
         <v>287063</v>
       </c>
       <c r="D241" t="s">
@@ -5720,14 +5782,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C242" s="1">
         <v>301446</v>
       </c>
       <c r="D242" t="s">
@@ -5737,14 +5799,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C243" s="7">
+      <c r="C243" s="1">
         <v>327871</v>
       </c>
       <c r="D243" t="s">
@@ -5754,14 +5816,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C244" s="7">
+      <c r="C244" s="1">
         <v>352334</v>
       </c>
       <c r="D244" t="s">
@@ -5771,31 +5833,34 @@
         <v>348</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C245" s="7">
+      <c r="C245" s="1">
         <v>296589</v>
       </c>
       <c r="D245" t="s">
         <v>344</v>
       </c>
       <c r="E245" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F245" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C246" s="7">
+      <c r="C246" s="1">
         <v>324574</v>
       </c>
       <c r="D246" t="s">
@@ -5805,14 +5870,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C247" s="7">
+      <c r="C247" s="1">
         <v>356582</v>
       </c>
       <c r="D247" t="s">
@@ -5822,14 +5887,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C248" s="7">
+      <c r="C248" s="1">
         <v>375059</v>
       </c>
       <c r="D248" t="s">
@@ -5839,14 +5904,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C249" s="7">
+      <c r="C249" s="1">
         <v>460781</v>
       </c>
       <c r="D249" t="s">
@@ -5856,31 +5921,34 @@
         <v>348</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C250" s="7">
+      <c r="C250" s="1">
         <v>484913</v>
       </c>
       <c r="D250" t="s">
         <v>344</v>
       </c>
       <c r="E250" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F250" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C251" s="7">
+      <c r="C251" s="1">
         <v>519885</v>
       </c>
       <c r="D251" t="s">
@@ -5890,14 +5958,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C252" s="7">
+      <c r="C252" s="1">
         <v>570570</v>
       </c>
       <c r="D252" t="s">
@@ -5907,14 +5975,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C253" s="7">
+      <c r="C253" s="1">
         <v>651967</v>
       </c>
       <c r="D253" t="s">
@@ -5924,14 +5992,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C254" s="7">
+      <c r="C254" s="1">
         <v>710835</v>
       </c>
       <c r="D254" t="s">
@@ -5941,14 +6009,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C255" s="7">
+      <c r="C255" s="1">
         <v>274799</v>
       </c>
       <c r="D255" t="s">
@@ -5958,14 +6026,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C256" s="7">
+      <c r="C256" s="1">
         <v>300838</v>
       </c>
       <c r="D256" t="s">
@@ -5975,14 +6043,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C257" s="7">
+      <c r="C257" s="1">
         <v>330899</v>
       </c>
       <c r="D257" t="s">
@@ -5992,14 +6060,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C258" s="7">
+      <c r="C258" s="1">
         <v>352979</v>
       </c>
       <c r="D258" t="s">
@@ -6009,14 +6077,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C259" s="7">
+      <c r="C259" s="1">
         <v>429266</v>
       </c>
       <c r="D259" t="s">
@@ -6026,14 +6094,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C260" s="7">
+      <c r="C260" s="1">
         <v>449330</v>
       </c>
       <c r="D260" t="s">
@@ -6043,14 +6111,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C261" s="7">
+      <c r="C261" s="1">
         <v>482370</v>
       </c>
       <c r="D261" t="s">
@@ -6060,14 +6128,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C262" s="7">
+      <c r="C262" s="1">
         <v>528882</v>
       </c>
       <c r="D262" t="s">
@@ -6077,14 +6145,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C263" s="7">
+      <c r="C263" s="1">
         <v>624549</v>
       </c>
       <c r="D263" t="s">
@@ -6094,14 +6162,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C264" s="7">
+      <c r="C264" s="1">
         <v>676987</v>
       </c>
       <c r="D264" t="s">
@@ -6111,14 +6179,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C265" s="7">
+      <c r="C265" s="1">
         <v>230637</v>
       </c>
       <c r="D265" t="s">
@@ -6128,14 +6196,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C266" s="7">
+      <c r="C266" s="1">
         <v>256245</v>
       </c>
       <c r="D266" t="s">
@@ -6145,14 +6213,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C267" s="7">
+      <c r="C267" s="1">
         <v>275996</v>
       </c>
       <c r="D267" t="s">
@@ -6162,14 +6230,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C268" s="7">
+      <c r="C268" s="1">
         <v>296440</v>
       </c>
       <c r="D268" t="s">
@@ -6179,14 +6247,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C269" s="7">
+      <c r="C269" s="1">
         <v>350961</v>
       </c>
       <c r="D269" t="s">
@@ -6196,14 +6264,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C270" s="7">
+      <c r="C270" s="1">
         <v>367279</v>
       </c>
       <c r="D270" t="s">
@@ -6213,14 +6281,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C271" s="7">
+      <c r="C271" s="1">
         <v>401951</v>
       </c>
       <c r="D271" t="s">
@@ -6230,14 +6298,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C272" s="7">
+      <c r="C272" s="1">
         <v>429712</v>
       </c>
       <c r="D272" t="s">
@@ -6247,14 +6315,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C273" s="7">
+      <c r="C273" s="1">
         <v>150852</v>
       </c>
       <c r="D273" t="s">
@@ -6264,31 +6332,34 @@
         <v>348</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C274" s="7">
+      <c r="C274" s="1">
         <v>150852</v>
       </c>
       <c r="D274" t="s">
         <v>344</v>
       </c>
       <c r="E274" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F274" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C275" s="7">
+      <c r="C275" s="1">
         <v>165229</v>
       </c>
       <c r="D275" t="s">
@@ -6298,31 +6369,34 @@
         <v>348</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C276" s="7">
+      <c r="C276" s="1">
         <v>178593</v>
       </c>
       <c r="D276" t="s">
         <v>344</v>
       </c>
       <c r="E276" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C277" s="7">
+      <c r="C277" s="1">
         <v>190925</v>
       </c>
       <c r="D277" t="s">
@@ -6332,14 +6406,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C278" s="7">
+      <c r="C278" s="1">
         <v>226687</v>
       </c>
       <c r="D278" t="s">
@@ -6349,31 +6423,34 @@
         <v>348</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C279" s="7">
+      <c r="C279" s="1">
         <v>238366</v>
       </c>
       <c r="D279" t="s">
         <v>344</v>
       </c>
       <c r="E279" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="F279" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C280" s="7">
+      <c r="C280" s="1">
         <v>238366</v>
       </c>
       <c r="D280" t="s">
@@ -6383,14 +6460,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C281" s="7">
+      <c r="C281" s="1">
         <v>258035</v>
       </c>
       <c r="D281" t="s">
@@ -6400,14 +6477,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C282" s="7">
+      <c r="C282" s="1">
         <v>148347</v>
       </c>
       <c r="D282" t="s">
@@ -6417,14 +6494,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C283" s="7">
+      <c r="C283" s="1">
         <v>579996</v>
       </c>
       <c r="D283" t="s">
@@ -6434,14 +6511,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C284" s="7">
+      <c r="C284" s="1">
         <v>651216</v>
       </c>
       <c r="D284" t="s">
@@ -6451,14 +6528,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C285" s="7">
+      <c r="C285" s="1">
         <v>126240</v>
       </c>
       <c r="D285" t="s">
@@ -6468,14 +6545,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C286" s="7">
+      <c r="C286" s="1">
         <v>126094</v>
       </c>
       <c r="D286" t="s">
@@ -6485,14 +6562,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C287" s="7">
+      <c r="C287" s="1">
         <v>132527</v>
       </c>
       <c r="D287" t="s">
@@ -6502,14 +6579,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C288" s="7">
+      <c r="C288" s="1">
         <v>132370</v>
       </c>
       <c r="D288" t="s">
@@ -6519,14 +6596,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C289" s="7">
+      <c r="C289" s="1">
         <v>141784</v>
       </c>
       <c r="D289" t="s">
@@ -6536,14 +6613,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C290" s="7">
+      <c r="C290" s="1">
         <v>141750</v>
       </c>
       <c r="D290" t="s">
@@ -6553,14 +6630,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C291" s="7">
+      <c r="C291" s="1">
         <v>168894</v>
       </c>
       <c r="D291" t="s">
@@ -6570,14 +6647,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C292" s="7">
+      <c r="C292" s="1">
         <v>173243</v>
       </c>
       <c r="D292" t="s">
@@ -6587,14 +6664,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C293" s="7">
+      <c r="C293" s="1">
         <v>182748</v>
       </c>
       <c r="D293" t="s">
@@ -6604,14 +6681,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C294" s="7">
+      <c r="C294" s="1">
         <v>130951</v>
       </c>
       <c r="D294" t="s">
@@ -6621,14 +6698,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C295" s="7">
+      <c r="C295" s="1">
         <v>130951</v>
       </c>
       <c r="D295" t="s">
@@ -6638,14 +6715,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C296" s="7">
+      <c r="C296" s="1">
         <v>130951</v>
       </c>
       <c r="D296" t="s">
@@ -6655,14 +6732,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C297" s="7">
+      <c r="C297" s="1">
         <v>133466</v>
       </c>
       <c r="D297" t="s">
@@ -6672,14 +6749,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C298" s="7">
+      <c r="C298" s="1">
         <v>130951</v>
       </c>
       <c r="D298" t="s">
@@ -6689,14 +6766,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C299" s="7">
+      <c r="C299" s="1">
         <v>130951</v>
       </c>
       <c r="D299" t="s">
@@ -6706,14 +6783,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C300" s="7">
+      <c r="C300" s="1">
         <v>130927</v>
       </c>
       <c r="D300" t="s">
@@ -6723,14 +6800,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C301" s="7">
+      <c r="C301" s="1">
         <v>130927</v>
       </c>
       <c r="D301" t="s">
@@ -6740,14 +6817,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C302" s="7">
+      <c r="C302" s="1">
         <v>130927</v>
       </c>
       <c r="D302" t="s">
@@ -6757,14 +6834,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C303" s="7">
+      <c r="C303" s="1">
         <v>133535</v>
       </c>
       <c r="D303" t="s">
@@ -6774,14 +6851,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C304" s="7">
+      <c r="C304" s="1">
         <v>130927</v>
       </c>
       <c r="D304" t="s">
@@ -6791,14 +6868,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C305" s="7">
+      <c r="C305" s="1">
         <v>137428</v>
       </c>
       <c r="D305" t="s">
@@ -6808,14 +6885,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C306" s="7">
+      <c r="C306" s="1">
         <v>137428</v>
       </c>
       <c r="D306" t="s">
@@ -6825,14 +6902,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C307" s="7">
+      <c r="C307" s="1">
         <v>137428</v>
       </c>
       <c r="D307" t="s">
@@ -6842,14 +6919,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C308" s="7">
+      <c r="C308" s="1">
         <v>140036</v>
       </c>
       <c r="D308" t="s">
@@ -6859,14 +6936,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C309" s="7">
+      <c r="C309" s="1">
         <v>137428</v>
       </c>
       <c r="D309" t="s">
@@ -6876,14 +6953,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C310" s="7">
+      <c r="C310" s="1">
         <v>137428</v>
       </c>
       <c r="D310" t="s">
@@ -6893,14 +6970,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C311" s="7">
+      <c r="C311" s="1">
         <v>137394</v>
       </c>
       <c r="D311" t="s">
@@ -6910,14 +6987,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C312" s="7">
+      <c r="C312" s="1">
         <v>137394</v>
       </c>
       <c r="D312" t="s">
@@ -6927,14 +7004,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C313" s="7">
+      <c r="C313" s="1">
         <v>137394</v>
       </c>
       <c r="D313" t="s">
@@ -6944,14 +7021,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C314" s="7">
+      <c r="C314" s="1">
         <v>140095</v>
       </c>
       <c r="D314" t="s">
@@ -6961,14 +7038,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C315" s="7">
+      <c r="C315" s="1">
         <v>146908</v>
       </c>
       <c r="D315" t="s">
@@ -6978,14 +7055,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C316" s="7">
+      <c r="C316" s="1">
         <v>146908</v>
       </c>
       <c r="D316" t="s">
@@ -6995,14 +7072,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C317" s="7">
+      <c r="C317" s="1">
         <v>146908</v>
       </c>
       <c r="D317" t="s">
@@ -7012,14 +7089,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C318" s="7">
+      <c r="C318" s="1">
         <v>149609</v>
       </c>
       <c r="D318" t="s">
@@ -7029,14 +7106,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C319" s="7">
+      <c r="C319" s="1">
         <v>146908</v>
       </c>
       <c r="D319" t="s">
@@ -7046,14 +7123,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C320" s="7">
+      <c r="C320" s="1">
         <v>146908</v>
       </c>
       <c r="D320" t="s">
@@ -7063,14 +7140,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C321" s="7">
+      <c r="C321" s="1">
         <v>146998</v>
       </c>
       <c r="D321" t="s">
@@ -7080,14 +7157,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C322" s="7">
+      <c r="C322" s="1">
         <v>146998</v>
       </c>
       <c r="D322" t="s">
@@ -7097,14 +7174,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C323" s="7">
+      <c r="C323" s="1">
         <v>146998</v>
       </c>
       <c r="D323" t="s">
@@ -7114,14 +7191,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C324" s="7">
+      <c r="C324" s="1">
         <v>149791</v>
       </c>
       <c r="D324" t="s">
@@ -7131,14 +7208,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C325" s="7">
+      <c r="C325" s="1">
         <v>174678</v>
       </c>
       <c r="D325" t="s">
@@ -7148,14 +7225,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C326" s="7">
+      <c r="C326" s="1">
         <v>174678</v>
       </c>
       <c r="D326" t="s">
@@ -7165,14 +7242,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C327" s="7">
+      <c r="C327" s="1">
         <v>177657</v>
       </c>
       <c r="D327" t="s">
@@ -7182,14 +7259,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C328" s="7">
+      <c r="C328" s="1">
         <v>174678</v>
       </c>
       <c r="D328" t="s">
@@ -7199,14 +7276,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C329" s="7">
+      <c r="C329" s="1">
         <v>174678</v>
       </c>
       <c r="D329" t="s">
@@ -7216,14 +7293,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C330" s="7">
+      <c r="C330" s="1">
         <v>179198</v>
       </c>
       <c r="D330" t="s">
@@ -7233,14 +7310,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C331" s="7">
+      <c r="C331" s="1">
         <v>179198</v>
       </c>
       <c r="D331" t="s">
@@ -7250,14 +7327,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C332" s="7">
+      <c r="C332" s="1">
         <v>179198</v>
       </c>
       <c r="D332" t="s">
@@ -7267,14 +7344,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C333" s="7">
+      <c r="C333" s="1">
         <v>182269</v>
       </c>
       <c r="D333" t="s">
@@ -7284,14 +7361,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C334" s="7">
+      <c r="C334" s="1">
         <v>179198</v>
       </c>
       <c r="D334" t="s">
@@ -7301,14 +7378,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C335" s="7">
+      <c r="C335" s="1">
         <v>179198</v>
       </c>
       <c r="D335" t="s">
@@ -7318,14 +7395,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C336" s="7">
+      <c r="C336" s="1">
         <v>188928</v>
       </c>
       <c r="D336" t="s">
@@ -7335,14 +7412,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C337" s="7">
+      <c r="C337" s="1">
         <v>188928</v>
       </c>
       <c r="D337" t="s">
@@ -7352,14 +7429,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C338" s="7">
+      <c r="C338" s="1">
         <v>192092</v>
       </c>
       <c r="D338" t="s">
@@ -7369,14 +7446,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C339" s="7">
+      <c r="C339" s="1">
         <v>188928</v>
       </c>
       <c r="D339" t="s">
@@ -7386,14 +7463,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C340" s="7">
+      <c r="C340" s="1">
         <v>188928</v>
       </c>
       <c r="D340" t="s">
@@ -7403,14 +7480,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A341" s="8" t="s">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>383</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C341" s="10">
+      <c r="C341" s="6">
         <v>89799</v>
       </c>
       <c r="D341" t="s">
@@ -7419,19 +7496,19 @@
       <c r="E341" t="s">
         <v>349</v>
       </c>
-      <c r="F341" s="8" t="s">
+      <c r="F341" t="s">
         <v>373</v>
       </c>
       <c r="I341" s="3"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A342" s="8" t="s">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>384</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C342" s="10">
+      <c r="C342" s="6">
         <v>74536</v>
       </c>
       <c r="D342" t="s">
@@ -7440,19 +7517,19 @@
       <c r="E342" t="s">
         <v>349</v>
       </c>
-      <c r="F342" s="8" t="s">
+      <c r="F342" t="s">
         <v>374</v>
       </c>
       <c r="I342" s="3"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>385</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C343" s="10">
+      <c r="C343" s="6">
         <v>50820</v>
       </c>
       <c r="D343" t="s">
@@ -7461,19 +7538,19 @@
       <c r="E343" t="s">
         <v>349</v>
       </c>
-      <c r="F343" s="8" t="s">
+      <c r="F343" t="s">
         <v>375</v>
       </c>
       <c r="I343" s="3"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A344" s="8" t="s">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>386</v>
       </c>
-      <c r="B344" s="5" t="s">
+      <c r="B344" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C344" s="10">
+      <c r="C344" s="6">
         <v>37268</v>
       </c>
       <c r="D344" t="s">
@@ -7482,138 +7559,142 @@
       <c r="E344" t="s">
         <v>349</v>
       </c>
-      <c r="F344" s="8" t="s">
+      <c r="F344" t="s">
         <v>376</v>
       </c>
       <c r="I344" s="3"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A345" s="8" t="s">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>387</v>
       </c>
-      <c r="B345" s="5" t="s">
+      <c r="B345" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C345" s="10">
+      <c r="C345" s="6">
         <v>42000</v>
       </c>
-      <c r="D345" s="8" t="s">
+      <c r="D345" t="s">
         <v>368</v>
       </c>
       <c r="E345" t="s">
         <v>349</v>
       </c>
-      <c r="F345" s="8" t="s">
+      <c r="F345" t="s">
         <v>377</v>
       </c>
-      <c r="I345" s="4"/>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A346" s="8" t="s">
+      <c r="I345" s="3"/>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>388</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="B346" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C346" s="10">
+      <c r="C346" s="6">
         <v>45738</v>
       </c>
-      <c r="D346" s="8" t="s">
+      <c r="D346" t="s">
         <v>369</v>
       </c>
       <c r="E346" t="s">
         <v>349</v>
       </c>
-      <c r="F346" s="8" t="s">
+      <c r="F346" t="s">
         <v>378</v>
       </c>
       <c r="I346" s="3"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A347" s="8" t="s">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>389</v>
       </c>
-      <c r="B347" s="5" t="s">
+      <c r="B347" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C347" s="10">
+      <c r="C347" s="6">
         <v>45738</v>
       </c>
-      <c r="D347" s="8" t="s">
+      <c r="D347" t="s">
         <v>370</v>
       </c>
       <c r="E347" t="s">
         <v>349</v>
       </c>
-      <c r="F347" s="8" t="s">
+      <c r="F347" t="s">
         <v>379</v>
       </c>
       <c r="I347" s="3"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A348" s="8" t="s">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>390</v>
       </c>
-      <c r="B348" s="5" t="s">
+      <c r="B348" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C348" s="10">
+      <c r="C348" s="6">
         <v>50820</v>
       </c>
-      <c r="D348" s="8" t="s">
+      <c r="D348" t="s">
         <v>371</v>
       </c>
       <c r="E348" t="s">
         <v>349</v>
       </c>
-      <c r="F348" s="8" t="s">
+      <c r="F348" t="s">
         <v>380</v>
       </c>
       <c r="I348" s="3"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A349" s="8" t="s">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>391</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="B349" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C349" s="10">
+      <c r="C349" s="6">
         <v>69999</v>
       </c>
-      <c r="D349" s="8" t="s">
+      <c r="D349" t="s">
         <v>371</v>
       </c>
       <c r="E349" t="s">
         <v>349</v>
       </c>
-      <c r="F349" s="8" t="s">
+      <c r="F349" t="s">
         <v>381</v>
       </c>
       <c r="I349" s="3"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A350" s="8" t="s">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>392</v>
       </c>
-      <c r="B350" s="5" t="s">
+      <c r="B350" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C350" s="10">
+      <c r="C350" s="6">
         <v>34000</v>
       </c>
-      <c r="D350" s="8" t="s">
+      <c r="D350" t="s">
         <v>372</v>
       </c>
       <c r="E350" t="s">
         <v>349</v>
       </c>
-      <c r="F350" s="8" t="s">
+      <c r="F350" t="s">
         <v>382</v>
       </c>
       <c r="I350" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F350" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="F276" r:id="rId1" xr:uid="{72F40706-6A5C-4749-8C0B-463B58D40147}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\colchonespremium2\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8277F9DB-64D6-4082-B21D-1479BE2099FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9956C343-EF95-4450-8465-74D97F3F449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$350</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$351</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="421">
   <si>
     <t>Almohada Venecia 0.65 Inducol 1 UN</t>
   </si>
@@ -1237,6 +1237,60 @@
   </si>
   <si>
     <t>https://i.imgur.com/6lAeGoj.jpeg</t>
+  </si>
+  <si>
+    <t>Heladera Exhibidora</t>
+  </si>
+  <si>
+    <t>NEBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibidora Vertical NEBA - Sin Cenefa ,  390 litros.   </t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freezer TRIAL 180 Litros. </t>
+  </si>
+  <si>
+    <t>Frezeer TRIAL 384 Litros, PUERTAS: 1, COLOR: BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frezeer TRIAL 384 Litros , PUERTAS: 2, COLOR: BLANCO </t>
+  </si>
+  <si>
+    <t>Freezer TRIAL 245 Litros, PUERTAS: 1, COLOR BLANCO</t>
+  </si>
+  <si>
+    <t>Frezeer TRIAL 245 Litros, PUERTAS: 1, COLOR GRIS</t>
+  </si>
+  <si>
+    <t>Frezeer TRIAL 305 Litros. PUERTAS :1, COLOR BLANCO</t>
+  </si>
+  <si>
+    <t>Frezeer TRIAL 305 Litros. PUERTAS :1, COLOR GRIS</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/5eJtSYQ.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/voMDb8P.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/H8Ji9U4.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/dkwqtXd.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/7sHYjFL.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UYZadru.png</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/NVCP5qv.png</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1386,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1341,6 +1395,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
@@ -1626,17 +1681,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I350"/>
+  <dimension ref="A1:I358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F341" sqref="F341"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="G358" sqref="G358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1668,7 +1725,7 @@
         <v>357</v>
       </c>
       <c r="C2" s="1">
-        <v>11234</v>
+        <v>11600</v>
       </c>
       <c r="D2" t="s">
         <v>342</v>
@@ -1688,7 +1745,7 @@
         <v>357</v>
       </c>
       <c r="C3" s="1">
-        <v>12426</v>
+        <v>12650</v>
       </c>
       <c r="D3" t="s">
         <v>342</v>
@@ -7488,7 +7545,7 @@
         <v>358</v>
       </c>
       <c r="C341" s="6">
-        <v>89799</v>
+        <v>116900</v>
       </c>
       <c r="D341" t="s">
         <v>366</v>
@@ -7509,7 +7566,7 @@
         <v>358</v>
       </c>
       <c r="C342" s="6">
-        <v>74536</v>
+        <v>93200</v>
       </c>
       <c r="D342" t="s">
         <v>366</v>
@@ -7530,7 +7587,7 @@
         <v>359</v>
       </c>
       <c r="C343" s="6">
-        <v>50820</v>
+        <v>39820</v>
       </c>
       <c r="D343" t="s">
         <v>366</v>
@@ -7551,7 +7608,7 @@
         <v>362</v>
       </c>
       <c r="C344" s="6">
-        <v>37268</v>
+        <v>45800</v>
       </c>
       <c r="D344" t="s">
         <v>367</v>
@@ -7572,7 +7629,7 @@
         <v>363</v>
       </c>
       <c r="C345" s="6">
-        <v>42000</v>
+        <v>44238</v>
       </c>
       <c r="D345" t="s">
         <v>368</v>
@@ -7593,7 +7650,7 @@
         <v>364</v>
       </c>
       <c r="C346" s="6">
-        <v>45738</v>
+        <v>47738</v>
       </c>
       <c r="D346" t="s">
         <v>369</v>
@@ -7614,7 +7671,7 @@
         <v>360</v>
       </c>
       <c r="C347" s="6">
-        <v>45738</v>
+        <v>46738</v>
       </c>
       <c r="D347" t="s">
         <v>370</v>
@@ -7635,7 +7692,7 @@
         <v>360</v>
       </c>
       <c r="C348" s="6">
-        <v>50820</v>
+        <v>54820</v>
       </c>
       <c r="D348" t="s">
         <v>371</v>
@@ -7690,8 +7747,168 @@
       </c>
       <c r="I350" s="3"/>
     </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>405</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C351" s="6">
+        <v>1199752</v>
+      </c>
+      <c r="D351" t="s">
+        <v>403</v>
+      </c>
+      <c r="E351" t="s">
+        <v>349</v>
+      </c>
+      <c r="F351" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>407</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C352" s="6">
+        <v>772337</v>
+      </c>
+      <c r="D352" t="s">
+        <v>406</v>
+      </c>
+      <c r="E352" t="s">
+        <v>349</v>
+      </c>
+      <c r="F352" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>410</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C353" s="6">
+        <v>827188</v>
+      </c>
+      <c r="D353" t="s">
+        <v>406</v>
+      </c>
+      <c r="E353" t="s">
+        <v>348</v>
+      </c>
+      <c r="F353" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>411</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C354" s="6">
+        <v>827188</v>
+      </c>
+      <c r="D354" t="s">
+        <v>406</v>
+      </c>
+      <c r="E354" t="s">
+        <v>349</v>
+      </c>
+      <c r="F354" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>412</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C355" s="6">
+        <v>860275</v>
+      </c>
+      <c r="D355" t="s">
+        <v>406</v>
+      </c>
+      <c r="E355" t="s">
+        <v>348</v>
+      </c>
+      <c r="F355" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>413</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C356" s="6">
+        <v>860275</v>
+      </c>
+      <c r="D356" t="s">
+        <v>406</v>
+      </c>
+      <c r="E356" t="s">
+        <v>349</v>
+      </c>
+      <c r="F356" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>408</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C357" s="6">
+        <v>1080859</v>
+      </c>
+      <c r="D357" t="s">
+        <v>406</v>
+      </c>
+      <c r="E357" t="s">
+        <v>348</v>
+      </c>
+      <c r="F357" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>409</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C358" s="6">
+        <v>1169092</v>
+      </c>
+      <c r="D358" t="s">
+        <v>406</v>
+      </c>
+      <c r="E358" t="s">
+        <v>349</v>
+      </c>
+      <c r="F358" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F350" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F351" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="F276" r:id="rId1" xr:uid="{72F40706-6A5C-4749-8C0B-463B58D40147}"/>
   </hyperlinks>

--- a/Backend/precios_colchones.xlsx
+++ b/Backend/precios_colchones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\colchonespremium2\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9956C343-EF95-4450-8465-74D97F3F449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310CB60C-CA35-47F3-9206-398E6129D620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="402">
   <si>
     <t>Almohada Venecia 0.65 Inducol 1 UN</t>
   </si>
@@ -1080,24 +1080,6 @@
     <t>si</t>
   </si>
   <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/NzjeCkw.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/pTv3BgX.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/Hvm9q5u.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/gK6TFQ1.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/fZ2rJGD.jpeg</t>
-  </si>
-  <si>
     <t>Marca</t>
   </si>
   <si>
@@ -1149,36 +1131,6 @@
     <t>Exprimidor</t>
   </si>
   <si>
-    <t>https://i.imgur.com/XDWGCE1.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/bHqFsZL.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/BnlMvvZ.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/xoOeXeB.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/fDqC38C.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/Ni2qK7S.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/HEzen2o.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/okMRIfQ.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/Hvk83BU.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/xowccjO.png</t>
-  </si>
-  <si>
     <t>Juego de Cocina DAEWOO 7 Pzas (ø24,20,18 y sarten ø24) Antiadherente DWL-SET7</t>
   </si>
   <si>
@@ -1209,36 +1161,6 @@
     <t>Exprimidor de Citricos OSTER SL-JC3400</t>
   </si>
   <si>
-    <t>https://i.imgur.com/kov6hJb.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/sB8J3mh.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/xi5DdKA.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/hLia8kw.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/ir3QsVn.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/X1ietGW.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/OnpR1SD.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/XSpZI3X.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/YfRWnb8.jpeg</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/6lAeGoj.jpeg</t>
-  </si>
-  <si>
     <t>Heladera Exhibidora</t>
   </si>
   <si>
@@ -1272,35 +1194,57 @@
     <t>Frezeer TRIAL 305 Litros. PUERTAS :1, COLOR GRIS</t>
   </si>
   <si>
-    <t>https://i.imgur.com/5eJtSYQ.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/voMDb8P.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/H8Ji9U4.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/dkwqtXd.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/7sHYjFL.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/UYZadru.png</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/NVCP5qv.png</t>
+    <t>Aire Acond SURREY Split 3600 W 2950 kcal/h FC (553BFQ1201F)</t>
+  </si>
+  <si>
+    <t>Aire Acond. TCL Elite 3300w F/C SA/EL-SK (TACA)</t>
+  </si>
+  <si>
+    <t>Aire Acond. TCL Elite 5300 F/C SA/EL3-SK (TACA-5300)</t>
+  </si>
+  <si>
+    <t>Aire Acondicionado TCL Split F/C 6400W Elite (6400FCSA/EL)</t>
+  </si>
+  <si>
+    <t>Batidora CATANIA Planetaria   10 Lts</t>
+  </si>
+  <si>
+    <t>Batidora CATANIA Planetaria   7 Lts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batidora CATANIA Planetaria  15 Lts </t>
+  </si>
+  <si>
+    <t>Cocina  ESCORIAL Master S2 CLASSIC  Negra 56 cm GN (33079)</t>
+  </si>
+  <si>
+    <t>Cocina DEPAOLO Mini, rej fundic, p/visor (57x86x60) 013603</t>
+  </si>
+  <si>
+    <t>Cocina ESCORIAL  Candor S2 51 Cm Blanca GE (32591)</t>
+  </si>
+  <si>
+    <t>Cocina ESCORIAL Candor 51 cm S2 bca GN 4 H (32584)</t>
+  </si>
+  <si>
+    <t>Cocina MORELLI 820 Saho Kuma 5 hornallas acero inox esmerilado c/pta ciega rej fund liviana</t>
+  </si>
+  <si>
+    <t>Aire Acondicionado</t>
+  </si>
+  <si>
+    <t>Cocina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1293,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1386,7 +1336,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1395,7 +1345,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
@@ -1681,28 +1636,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I358"/>
+  <dimension ref="A1:I376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="G358" sqref="G358"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="E371" sqref="E371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>340</v>
       </c>
       <c r="B1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>339</v>
@@ -1713,16 +1668,13 @@
       <c r="E1" t="s">
         <v>347</v>
       </c>
-      <c r="F1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C2" s="1">
         <v>11600</v>
@@ -1733,16 +1685,13 @@
       <c r="E2" t="s">
         <v>349</v>
       </c>
-      <c r="F2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1">
         <v>12650</v>
@@ -1753,16 +1702,13 @@
       <c r="E3" t="s">
         <v>349</v>
       </c>
-      <c r="F3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C4" s="1">
         <v>14370</v>
@@ -1773,16 +1719,13 @@
       <c r="E4" t="s">
         <v>349</v>
       </c>
-      <c r="F4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C5" s="1">
         <v>11869</v>
@@ -1794,12 +1737,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C6" s="1">
         <v>12726</v>
@@ -1811,12 +1754,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C7" s="1">
         <v>14441</v>
@@ -1828,12 +1771,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C8" s="1">
         <v>16157</v>
@@ -1845,12 +1788,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C9" s="1">
         <v>17872</v>
@@ -1862,12 +1805,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C10" s="1">
         <v>23017</v>
@@ -1879,12 +1822,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C11" s="1">
         <v>24732</v>
@@ -1896,12 +1839,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C12" s="1">
         <v>30457</v>
@@ -1913,12 +1856,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C13" s="1">
         <v>34593</v>
@@ -1930,12 +1873,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C14" s="1">
         <v>38729</v>
@@ -1947,12 +1890,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C15" s="1">
         <v>8180</v>
@@ -1964,12 +1907,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C16" s="1">
         <v>8776</v>
@@ -1986,7 +1929,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C17" s="1">
         <v>9969</v>
@@ -2003,7 +1946,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C18" s="1">
         <v>11161</v>
@@ -2020,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C19" s="1">
         <v>12353</v>
@@ -2037,7 +1980,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C20" s="1">
         <v>15931</v>
@@ -2054,7 +1997,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C21" s="1">
         <v>17123</v>
@@ -2071,7 +2014,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C22" s="1">
         <v>17574</v>
@@ -2088,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C23" s="1">
         <v>114322</v>
@@ -2105,7 +2048,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C24" s="1">
         <v>114322</v>
@@ -2122,7 +2065,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C25" s="1">
         <v>114322</v>
@@ -2139,7 +2082,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C26" s="1">
         <v>127371</v>
@@ -2156,7 +2099,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C27" s="1">
         <v>127452</v>
@@ -2173,7 +2116,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C28" s="1">
         <v>142059</v>
@@ -2190,7 +2133,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C29" s="1">
         <v>140822</v>
@@ -2207,7 +2150,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C30" s="1">
         <v>140822</v>
@@ -2224,7 +2167,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C31" s="1">
         <v>140822</v>
@@ -2241,7 +2184,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C32" s="1">
         <v>156986</v>
@@ -2258,7 +2201,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C33" s="1">
         <v>180452</v>
@@ -2275,7 +2218,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C34" s="1">
         <v>201291</v>
@@ -2292,7 +2235,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C35" s="1">
         <v>193821</v>
@@ -2309,7 +2252,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C36" s="1">
         <v>216218</v>
@@ -2326,7 +2269,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C37" s="1">
         <v>230986</v>
@@ -2343,7 +2286,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C38" s="1">
         <v>278628</v>
@@ -2360,7 +2303,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C39" s="1">
         <v>319506</v>
@@ -2377,7 +2320,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C40" s="1">
         <v>346374</v>
@@ -2394,7 +2337,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C41" s="1">
         <v>357156</v>
@@ -2411,7 +2354,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C42" s="1">
         <v>455107</v>
@@ -2428,7 +2371,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C43" s="1">
         <v>468491</v>
@@ -2445,7 +2388,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C44" s="1">
         <v>468491</v>
@@ -2462,7 +2405,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C45" s="1">
         <v>535065</v>
@@ -2479,7 +2422,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C46" s="1">
         <v>553611</v>
@@ -2496,7 +2439,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C47" s="1">
         <v>664987</v>
@@ -2513,7 +2456,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C48" s="1">
         <v>695237</v>
@@ -2530,7 +2473,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C49" s="1">
         <v>74607</v>
@@ -2547,7 +2490,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C50" s="1">
         <v>94096</v>
@@ -2564,7 +2507,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C51" s="1">
         <v>105063</v>
@@ -2581,7 +2524,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C52" s="1">
         <v>116030</v>
@@ -2598,7 +2541,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C53" s="1">
         <v>155974</v>
@@ -2615,7 +2558,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C54" s="1">
         <v>159898</v>
@@ -2632,7 +2575,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C55" s="1">
         <v>33901</v>
@@ -2649,7 +2592,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C56" s="1">
         <v>35168</v>
@@ -2666,7 +2609,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C57" s="1">
         <v>36339</v>
@@ -2683,7 +2626,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C58" s="1">
         <v>33333</v>
@@ -2700,7 +2643,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C59" s="1">
         <v>46969</v>
@@ -2717,7 +2660,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C60" s="1">
         <v>42036</v>
@@ -2734,7 +2677,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C61" s="1">
         <v>55374</v>
@@ -2751,7 +2694,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C62" s="1">
         <v>51058</v>
@@ -2768,7 +2711,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C63" s="1">
         <v>51865</v>
@@ -2785,7 +2728,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C64" s="1">
         <v>46730</v>
@@ -2802,7 +2745,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C65" s="1">
         <v>31613</v>
@@ -2819,7 +2762,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C66" s="1">
         <v>42378</v>
@@ -2836,7 +2779,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C67" s="1">
         <v>30543</v>
@@ -2853,7 +2796,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C68" s="1">
         <v>65818</v>
@@ -2870,7 +2813,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C69" s="1">
         <v>46051</v>
@@ -2887,7 +2830,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C70" s="1">
         <v>118829</v>
@@ -2904,7 +2847,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C71" s="1">
         <v>97430</v>
@@ -2921,7 +2864,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C72" s="1">
         <v>172073</v>
@@ -2938,7 +2881,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C73" s="1">
         <v>192124</v>
@@ -2955,7 +2898,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C74" s="1">
         <v>212409</v>
@@ -2972,7 +2915,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C75" s="1">
         <v>283611</v>
@@ -2989,7 +2932,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C76" s="1">
         <v>281982</v>
@@ -3006,7 +2949,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C77" s="1">
         <v>293081</v>
@@ -3023,7 +2966,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C78" s="1">
         <v>170633</v>
@@ -3040,7 +2983,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C79" s="1">
         <v>199388</v>
@@ -3057,7 +3000,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C80" s="1">
         <v>190309</v>
@@ -3069,12 +3012,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C81" s="1">
         <v>222529</v>
@@ -3086,12 +3029,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C82" s="1">
         <v>210250</v>
@@ -3103,12 +3046,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C83" s="1">
         <v>245935</v>
@@ -3120,12 +3063,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C84" s="1">
         <v>217893</v>
@@ -3137,12 +3080,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C85" s="1">
         <v>255423</v>
@@ -3154,12 +3097,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C86" s="1">
         <v>269543</v>
@@ -3171,12 +3114,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C87" s="1">
         <v>315623</v>
@@ -3188,12 +3131,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C88" s="1">
         <v>289484</v>
@@ -3205,12 +3148,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C89" s="1">
         <v>339029</v>
@@ -3221,16 +3164,13 @@
       <c r="E89" t="s">
         <v>349</v>
       </c>
-      <c r="F89" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C90" s="1">
         <v>309248</v>
@@ -3242,12 +3182,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C91" s="1">
         <v>362258</v>
@@ -3259,12 +3199,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C92" s="1">
         <v>341052</v>
@@ -3276,12 +3216,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C93" s="1">
         <v>400452</v>
@@ -3293,12 +3233,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C94" s="1">
         <v>212638</v>
@@ -3310,12 +3250,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C95" s="1">
         <v>237447</v>
@@ -3327,12 +3267,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C96" s="1">
         <v>262518</v>
@@ -3349,7 +3289,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C97" s="1">
         <v>272988</v>
@@ -3366,7 +3306,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C98" s="1">
         <v>337208</v>
@@ -3383,7 +3323,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C99" s="1">
         <v>362279</v>
@@ -3400,7 +3340,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C100" s="1">
         <v>387176</v>
@@ -3417,7 +3357,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C101" s="1">
         <v>428610</v>
@@ -3434,7 +3374,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C102" s="1">
         <v>480309</v>
@@ -3451,7 +3391,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C103" s="1">
         <v>531398</v>
@@ -3468,7 +3408,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C104" s="1">
         <v>253222</v>
@@ -3485,7 +3425,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C105" s="1">
         <v>285215</v>
@@ -3502,7 +3442,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C106" s="1">
         <v>312121</v>
@@ -3519,7 +3459,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C107" s="1">
         <v>322869</v>
@@ -3536,7 +3476,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C108" s="1">
         <v>416209</v>
@@ -3553,7 +3493,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C109" s="1">
         <v>423848</v>
@@ -3570,7 +3510,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C110" s="1">
         <v>488697</v>
@@ -3587,7 +3527,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C111" s="1">
         <v>501173</v>
@@ -3604,7 +3544,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C112" s="1">
         <v>570082</v>
@@ -3616,12 +3556,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C113" s="1">
         <v>622649</v>
@@ -3633,12 +3573,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C114" s="1">
         <v>177811</v>
@@ -3649,16 +3589,13 @@
       <c r="E114" t="s">
         <v>349</v>
       </c>
-      <c r="F114" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C115" s="1">
         <v>202415</v>
@@ -3669,16 +3606,13 @@
       <c r="E115" t="s">
         <v>349</v>
       </c>
-      <c r="F115" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C116" s="1">
         <v>220998</v>
@@ -3689,16 +3623,13 @@
       <c r="E116" t="s">
         <v>349</v>
       </c>
-      <c r="F116" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C117" s="1">
         <v>221059</v>
@@ -3710,12 +3641,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C118" s="1">
         <v>284045</v>
@@ -3727,12 +3658,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C119" s="1">
         <v>280775</v>
@@ -3744,12 +3675,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C120" s="1">
         <v>324844</v>
@@ -3761,12 +3692,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C121" s="1">
         <v>326951</v>
@@ -3778,12 +3709,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C122" s="1">
         <v>363922</v>
@@ -3795,12 +3726,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C123" s="1">
         <v>398113</v>
@@ -3812,12 +3743,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C124" s="1">
         <v>207802</v>
@@ -3829,12 +3760,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C125" s="1">
         <v>246716</v>
@@ -3846,12 +3777,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C126" s="1">
         <v>253827</v>
@@ -3863,12 +3794,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C127" s="1">
         <v>303162</v>
@@ -3880,12 +3811,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C128" s="1">
         <v>263986</v>
@@ -3902,7 +3833,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C129" s="1">
         <v>314102</v>
@@ -3919,7 +3850,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C130" s="1">
         <v>266260</v>
@@ -3936,7 +3867,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C131" s="1">
         <v>316828</v>
@@ -3953,7 +3884,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C132" s="1">
         <v>334385</v>
@@ -3970,7 +3901,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C133" s="1">
         <v>397643</v>
@@ -3987,7 +3918,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C134" s="1">
         <v>344544</v>
@@ -4004,7 +3935,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C135" s="1">
         <v>408583</v>
@@ -4021,7 +3952,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C136" s="1">
         <v>393555</v>
@@ -4038,7 +3969,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C137" s="1">
         <v>468787</v>
@@ -4055,7 +3986,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C138" s="1">
         <v>406993</v>
@@ -4072,7 +4003,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C139" s="1">
         <v>483678</v>
@@ -4089,7 +4020,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C140" s="1">
         <v>499505</v>
@@ -4106,7 +4037,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C141" s="1">
         <v>597105</v>
@@ -4123,7 +4054,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C142" s="1">
         <v>519064</v>
@@ -4140,7 +4071,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C143" s="1">
         <v>618300</v>
@@ -4157,7 +4088,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C144" s="1">
         <v>283561</v>
@@ -4174,7 +4105,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C145" s="1">
         <v>325136</v>
@@ -4191,7 +4122,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C146" s="1">
         <v>351893</v>
@@ -4208,7 +4139,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C147" s="1">
         <v>362030</v>
@@ -4225,7 +4156,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C148" s="1">
         <v>447651</v>
@@ -4242,7 +4173,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C149" s="1">
         <v>474408</v>
@@ -4259,7 +4190,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C150" s="1">
         <v>474408</v>
@@ -4276,7 +4207,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C151" s="1">
         <v>516889</v>
@@ -4293,7 +4224,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C152" s="1">
         <v>559032</v>
@@ -4310,7 +4241,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C153" s="1">
         <v>643214</v>
@@ -4327,7 +4258,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C154" s="1">
         <v>696047</v>
@@ -4344,7 +4275,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C155" s="1">
         <v>337735</v>
@@ -4361,7 +4292,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C156" s="1">
         <v>385733</v>
@@ -4378,7 +4309,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C157" s="1">
         <v>418124</v>
@@ -4395,7 +4326,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C158" s="1">
         <v>428277</v>
@@ -4412,7 +4343,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C159" s="1">
         <v>530897</v>
@@ -4429,7 +4360,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C160" s="1">
         <v>563288</v>
@@ -4441,12 +4372,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C161" s="1">
         <v>563288</v>
@@ -4458,12 +4389,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C162" s="1">
         <v>611505</v>
@@ -4475,12 +4406,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C163" s="1">
         <v>659315</v>
@@ -4492,12 +4423,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C164" s="1">
         <v>754961</v>
@@ -4509,12 +4440,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C165" s="1">
         <v>819088</v>
@@ -4526,12 +4457,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C166" s="1">
         <v>144470</v>
@@ -4543,12 +4474,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C167" s="1">
         <v>159156</v>
@@ -4560,12 +4491,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C168" s="1">
         <v>147520</v>
@@ -4577,12 +4508,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C169" s="1">
         <v>162563</v>
@@ -4594,12 +4525,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C170" s="1">
         <v>160825</v>
@@ -4611,12 +4542,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C171" s="1">
         <v>177691</v>
@@ -4628,12 +4559,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C172" s="1">
         <v>89949</v>
@@ -4645,12 +4576,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C173" s="2">
         <v>101052</v>
@@ -4661,16 +4592,13 @@
       <c r="E173" t="s">
         <v>349</v>
       </c>
-      <c r="F173" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C174" s="1">
         <v>126340</v>
@@ -4682,12 +4610,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C175" s="1">
         <v>139495</v>
@@ -4699,12 +4627,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C176" s="1">
         <v>178961</v>
@@ -4716,12 +4644,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C177" s="1">
         <v>192116</v>
@@ -4733,12 +4661,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C178" s="2">
         <v>101179</v>
@@ -4749,16 +4677,13 @@
       <c r="E178" t="s">
         <v>349</v>
       </c>
-      <c r="F178" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C179" s="1">
         <v>172127</v>
@@ -4770,12 +4695,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C180" s="1">
         <v>51098</v>
@@ -4787,12 +4712,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C181" s="1">
         <v>57696</v>
@@ -4804,12 +4729,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C182" s="1">
         <v>64501</v>
@@ -4821,12 +4746,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C183" s="2">
         <v>71928</v>
@@ -4837,16 +4762,13 @@
       <c r="E183" t="s">
         <v>349</v>
       </c>
-      <c r="F183" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C184" s="1">
         <v>57389</v>
@@ -4858,12 +4780,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C185" s="1">
         <v>64947</v>
@@ -4875,12 +4797,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C186" s="1">
         <v>72136</v>
@@ -4892,12 +4814,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C187" s="1">
         <v>80349</v>
@@ -4909,12 +4831,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C188" s="1">
         <v>63401</v>
@@ -4926,12 +4848,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C189" s="1">
         <v>71673</v>
@@ -4943,12 +4865,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C190" s="1">
         <v>79770</v>
@@ -4960,12 +4882,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C191" s="1">
         <v>88770</v>
@@ -4977,12 +4899,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C192" s="1">
         <v>81437</v>
@@ -4994,12 +4916,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C193" s="1">
         <v>91853</v>
@@ -5011,12 +4933,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C194" s="1">
         <v>102673</v>
@@ -5028,12 +4950,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C195" s="1">
         <v>114033</v>
@@ -5045,12 +4967,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C196" s="1">
         <v>87449</v>
@@ -5062,12 +4984,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C197" s="1">
         <v>98579</v>
@@ -5079,12 +5001,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C198" s="1">
         <v>110307</v>
@@ -5096,12 +5018,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C199" s="2">
         <v>122454</v>
@@ -5112,16 +5034,13 @@
       <c r="E199" t="s">
         <v>349</v>
       </c>
-      <c r="F199" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C200" s="1">
         <v>112747</v>
@@ -5133,12 +5052,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C201" s="1">
         <v>561093</v>
@@ -5150,12 +5069,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C202" s="1">
         <v>624146</v>
@@ -5167,12 +5086,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C203" s="1">
         <v>368163</v>
@@ -5184,12 +5103,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C204" s="1">
         <v>405591</v>
@@ -5201,12 +5120,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C205" s="1">
         <v>440324</v>
@@ -5218,12 +5137,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C206" s="1">
         <v>450149</v>
@@ -5235,12 +5154,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C207" s="1">
         <v>573178</v>
@@ -5252,12 +5171,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C208" s="1">
         <v>585380</v>
@@ -5268,16 +5187,13 @@
       <c r="E208" t="s">
         <v>349</v>
       </c>
-      <c r="F208" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C209" s="1">
         <v>657677</v>
@@ -5289,12 +5205,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C210" s="1">
         <v>729273</v>
@@ -5306,12 +5222,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C211" s="1">
         <v>809225</v>
@@ -5323,12 +5239,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C212" s="1">
         <v>877208</v>
@@ -5340,12 +5256,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C213" s="1">
         <v>204699</v>
@@ -5356,16 +5272,13 @@
       <c r="E213" t="s">
         <v>349</v>
       </c>
-      <c r="F213" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C214" s="1">
         <v>204699</v>
@@ -5377,12 +5290,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C215" s="1">
         <v>204699</v>
@@ -5394,12 +5307,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C216" s="1">
         <v>224160</v>
@@ -5411,12 +5324,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C217" s="1">
         <v>224160</v>
@@ -5428,12 +5341,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C218" s="1">
         <v>224160</v>
@@ -5445,12 +5358,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C219" s="1">
         <v>242513</v>
@@ -5462,12 +5375,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C220" s="1">
         <v>242513</v>
@@ -5479,12 +5392,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C221" s="1">
         <v>242513</v>
@@ -5496,12 +5409,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C222" s="1">
         <v>257903</v>
@@ -5513,12 +5426,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C223" s="1">
         <v>257903</v>
@@ -5530,12 +5443,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C224" s="1">
         <v>257903</v>
@@ -5547,12 +5460,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C225" s="1">
         <v>307118</v>
@@ -5564,12 +5477,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C226" s="1">
         <v>307118</v>
@@ -5581,12 +5494,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C227" s="1">
         <v>307118</v>
@@ -5598,12 +5511,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C228" s="1">
         <v>322649</v>
@@ -5614,16 +5527,13 @@
       <c r="E228" t="s">
         <v>349</v>
       </c>
-      <c r="F228" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C229" s="1">
         <v>322649</v>
@@ -5635,12 +5545,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C230" s="1">
         <v>322649</v>
@@ -5652,12 +5562,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C231" s="1">
         <v>348853</v>
@@ -5669,12 +5579,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C232" s="1">
         <v>348853</v>
@@ -5686,12 +5596,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C233" s="1">
         <v>348853</v>
@@ -5703,12 +5613,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C234" s="1">
         <v>375954</v>
@@ -5720,12 +5630,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C235" s="1">
         <v>375954</v>
@@ -5737,12 +5647,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C236" s="1">
         <v>375954</v>
@@ -5754,12 +5664,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C237" s="1">
         <v>189228</v>
@@ -5771,12 +5681,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C238" s="1">
         <v>207742</v>
@@ -5788,12 +5698,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C239" s="1">
         <v>225193</v>
@@ -5805,12 +5715,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C240" s="1">
         <v>243322</v>
@@ -5822,12 +5732,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C241" s="1">
         <v>287063</v>
@@ -5839,12 +5749,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C242" s="1">
         <v>301446</v>
@@ -5856,12 +5766,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C243" s="1">
         <v>327871</v>
@@ -5873,12 +5783,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C244" s="1">
         <v>352334</v>
@@ -5890,12 +5800,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C245" s="1">
         <v>296589</v>
@@ -5906,16 +5816,13 @@
       <c r="E245" t="s">
         <v>349</v>
       </c>
-      <c r="F245" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C246" s="1">
         <v>324574</v>
@@ -5927,12 +5834,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C247" s="1">
         <v>356582</v>
@@ -5944,12 +5851,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C248" s="1">
         <v>375059</v>
@@ -5961,12 +5868,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C249" s="1">
         <v>460781</v>
@@ -5978,12 +5885,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C250" s="1">
         <v>484913</v>
@@ -5994,16 +5901,13 @@
       <c r="E250" t="s">
         <v>349</v>
       </c>
-      <c r="F250" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C251" s="1">
         <v>519885</v>
@@ -6015,12 +5919,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C252" s="1">
         <v>570570</v>
@@ -6032,12 +5936,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C253" s="1">
         <v>651967</v>
@@ -6049,12 +5953,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C254" s="1">
         <v>710835</v>
@@ -6066,12 +5970,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C255" s="1">
         <v>274799</v>
@@ -6083,12 +5987,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C256" s="1">
         <v>300838</v>
@@ -6105,7 +6009,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C257" s="1">
         <v>330899</v>
@@ -6122,7 +6026,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C258" s="1">
         <v>352979</v>
@@ -6139,7 +6043,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C259" s="1">
         <v>429266</v>
@@ -6156,7 +6060,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C260" s="1">
         <v>449330</v>
@@ -6173,7 +6077,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C261" s="1">
         <v>482370</v>
@@ -6190,7 +6094,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C262" s="1">
         <v>528882</v>
@@ -6207,7 +6111,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C263" s="1">
         <v>624549</v>
@@ -6224,7 +6128,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C264" s="1">
         <v>676987</v>
@@ -6241,7 +6145,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C265" s="1">
         <v>230637</v>
@@ -6258,7 +6162,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C266" s="1">
         <v>256245</v>
@@ -6275,7 +6179,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C267" s="1">
         <v>275996</v>
@@ -6292,7 +6196,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C268" s="1">
         <v>296440</v>
@@ -6309,7 +6213,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C269" s="1">
         <v>350961</v>
@@ -6326,7 +6230,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C270" s="1">
         <v>367279</v>
@@ -6343,7 +6247,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C271" s="1">
         <v>401951</v>
@@ -6360,7 +6264,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C272" s="1">
         <v>429712</v>
@@ -6377,7 +6281,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C273" s="1">
         <v>150852</v>
@@ -6394,7 +6298,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C274" s="1">
         <v>150852</v>
@@ -6404,9 +6308,6 @@
       </c>
       <c r="E274" t="s">
         <v>349</v>
-      </c>
-      <c r="F274" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -6414,7 +6315,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C275" s="1">
         <v>165229</v>
@@ -6431,7 +6332,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C276" s="1">
         <v>178593</v>
@@ -6442,16 +6343,14 @@
       <c r="E276" t="s">
         <v>349</v>
       </c>
-      <c r="F276" s="7" t="s">
-        <v>401</v>
-      </c>
+      <c r="F276" s="7"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C277" s="1">
         <v>190925</v>
@@ -6468,7 +6367,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C278" s="1">
         <v>226687</v>
@@ -6485,7 +6384,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C279" s="1">
         <v>238366</v>
@@ -6495,9 +6394,6 @@
       </c>
       <c r="E279" t="s">
         <v>349</v>
-      </c>
-      <c r="F279" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -6505,7 +6401,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C280" s="1">
         <v>238366</v>
@@ -6522,7 +6418,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C281" s="1">
         <v>258035</v>
@@ -6539,7 +6435,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C282" s="1">
         <v>148347</v>
@@ -6556,7 +6452,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C283" s="1">
         <v>579996</v>
@@ -6573,7 +6469,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C284" s="1">
         <v>651216</v>
@@ -6590,7 +6486,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C285" s="1">
         <v>126240</v>
@@ -6607,7 +6503,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C286" s="1">
         <v>126094</v>
@@ -6624,7 +6520,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C287" s="1">
         <v>132527</v>
@@ -6641,7 +6537,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C288" s="1">
         <v>132370</v>
@@ -6658,7 +6554,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C289" s="1">
         <v>141784</v>
@@ -6675,7 +6571,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C290" s="1">
         <v>141750</v>
@@ -6692,7 +6588,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C291" s="1">
         <v>168894</v>
@@ -6709,7 +6605,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C292" s="1">
         <v>173243</v>
@@ -6726,7 +6622,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C293" s="1">
         <v>182748</v>
@@ -6743,7 +6639,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C294" s="1">
         <v>130951</v>
@@ -6760,7 +6656,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C295" s="1">
         <v>130951</v>
@@ -6777,7 +6673,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C296" s="1">
         <v>130951</v>
@@ -6794,7 +6690,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C297" s="1">
         <v>133466</v>
@@ -6811,7 +6707,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C298" s="1">
         <v>130951</v>
@@ -6828,7 +6724,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C299" s="1">
         <v>130951</v>
@@ -6845,7 +6741,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C300" s="1">
         <v>130927</v>
@@ -6862,7 +6758,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C301" s="1">
         <v>130927</v>
@@ -6879,7 +6775,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C302" s="1">
         <v>130927</v>
@@ -6896,7 +6792,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C303" s="1">
         <v>133535</v>
@@ -6913,7 +6809,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C304" s="1">
         <v>130927</v>
@@ -6930,7 +6826,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C305" s="1">
         <v>137428</v>
@@ -6947,7 +6843,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C306" s="1">
         <v>137428</v>
@@ -6964,7 +6860,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C307" s="1">
         <v>137428</v>
@@ -6981,7 +6877,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C308" s="1">
         <v>140036</v>
@@ -6998,7 +6894,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C309" s="1">
         <v>137428</v>
@@ -7015,7 +6911,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C310" s="1">
         <v>137428</v>
@@ -7032,7 +6928,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C311" s="1">
         <v>137394</v>
@@ -7049,7 +6945,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C312" s="1">
         <v>137394</v>
@@ -7066,7 +6962,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C313" s="1">
         <v>137394</v>
@@ -7083,7 +6979,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C314" s="1">
         <v>140095</v>
@@ -7100,7 +6996,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C315" s="1">
         <v>146908</v>
@@ -7117,7 +7013,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C316" s="1">
         <v>146908</v>
@@ -7134,7 +7030,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C317" s="1">
         <v>146908</v>
@@ -7151,7 +7047,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C318" s="1">
         <v>149609</v>
@@ -7168,7 +7064,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C319" s="1">
         <v>146908</v>
@@ -7185,7 +7081,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C320" s="1">
         <v>146908</v>
@@ -7202,7 +7098,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C321" s="1">
         <v>146998</v>
@@ -7219,7 +7115,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C322" s="1">
         <v>146998</v>
@@ -7236,7 +7132,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C323" s="1">
         <v>146998</v>
@@ -7253,7 +7149,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C324" s="1">
         <v>149791</v>
@@ -7270,7 +7166,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C325" s="1">
         <v>174678</v>
@@ -7287,7 +7183,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C326" s="1">
         <v>174678</v>
@@ -7304,7 +7200,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C327" s="1">
         <v>177657</v>
@@ -7321,7 +7217,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C328" s="1">
         <v>174678</v>
@@ -7338,7 +7234,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C329" s="1">
         <v>174678</v>
@@ -7355,7 +7251,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C330" s="1">
         <v>179198</v>
@@ -7372,7 +7268,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C331" s="1">
         <v>179198</v>
@@ -7389,7 +7285,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C332" s="1">
         <v>179198</v>
@@ -7406,7 +7302,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C333" s="1">
         <v>182269</v>
@@ -7423,7 +7319,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C334" s="1">
         <v>179198</v>
@@ -7440,7 +7336,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C335" s="1">
         <v>179198</v>
@@ -7457,7 +7353,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C336" s="1">
         <v>188928</v>
@@ -7474,7 +7370,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C337" s="1">
         <v>188928</v>
@@ -7491,7 +7387,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C338" s="1">
         <v>192092</v>
@@ -7508,7 +7404,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C339" s="1">
         <v>188928</v>
@@ -7525,7 +7421,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C340" s="1">
         <v>188928</v>
@@ -7539,379 +7435,553 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C341" s="6">
         <v>116900</v>
       </c>
       <c r="D341" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E341" t="s">
         <v>349</v>
       </c>
-      <c r="F341" t="s">
-        <v>373</v>
-      </c>
       <c r="I341" s="3"/>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C342" s="6">
         <v>93200</v>
       </c>
       <c r="D342" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E342" t="s">
         <v>349</v>
       </c>
-      <c r="F342" t="s">
-        <v>374</v>
-      </c>
       <c r="I342" s="3"/>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C343" s="6">
         <v>39820</v>
       </c>
       <c r="D343" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E343" t="s">
         <v>349</v>
       </c>
-      <c r="F343" t="s">
-        <v>375</v>
-      </c>
       <c r="I343" s="3"/>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C344" s="6">
         <v>45800</v>
       </c>
       <c r="D344" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E344" t="s">
         <v>349</v>
       </c>
-      <c r="F344" t="s">
-        <v>376</v>
-      </c>
       <c r="I344" s="3"/>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C345" s="6">
         <v>44238</v>
       </c>
       <c r="D345" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E345" t="s">
         <v>349</v>
       </c>
-      <c r="F345" t="s">
-        <v>377</v>
-      </c>
       <c r="I345" s="3"/>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C346" s="6">
         <v>47738</v>
       </c>
       <c r="D346" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E346" t="s">
         <v>349</v>
       </c>
-      <c r="F346" t="s">
-        <v>378</v>
-      </c>
       <c r="I346" s="3"/>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C347" s="6">
         <v>46738</v>
       </c>
       <c r="D347" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E347" t="s">
         <v>349</v>
       </c>
-      <c r="F347" t="s">
-        <v>379</v>
-      </c>
       <c r="I347" s="3"/>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C348" s="6">
         <v>54820</v>
       </c>
       <c r="D348" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E348" t="s">
         <v>349</v>
       </c>
-      <c r="F348" t="s">
-        <v>380</v>
-      </c>
       <c r="I348" s="3"/>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C349" s="6">
         <v>69999</v>
       </c>
       <c r="D349" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E349" t="s">
         <v>349</v>
       </c>
-      <c r="F349" t="s">
-        <v>381</v>
-      </c>
       <c r="I349" s="3"/>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C350" s="6">
         <v>34000</v>
       </c>
       <c r="D350" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E350" t="s">
         <v>349</v>
       </c>
-      <c r="F350" t="s">
-        <v>382</v>
-      </c>
       <c r="I350" s="3"/>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>405</v>
-      </c>
-      <c r="B351" s="8" t="s">
-        <v>404</v>
+        <v>379</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C351" s="6">
         <v>1199752</v>
       </c>
       <c r="D351" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="E351" t="s">
         <v>349</v>
       </c>
-      <c r="F351" t="s">
-        <v>414</v>
-      </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>407</v>
-      </c>
-      <c r="B352" s="8" t="s">
-        <v>404</v>
+        <v>381</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C352" s="6">
-        <v>772337</v>
+        <v>669000</v>
       </c>
       <c r="D352" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E352" t="s">
         <v>349</v>
       </c>
-      <c r="F352" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>410</v>
-      </c>
-      <c r="B353" s="8" t="s">
-        <v>404</v>
+        <v>384</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C353" s="6">
-        <v>827188</v>
+        <v>719000</v>
       </c>
       <c r="D353" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E353" t="s">
         <v>348</v>
       </c>
-      <c r="F353" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>411</v>
-      </c>
-      <c r="B354" s="8" t="s">
-        <v>404</v>
+        <v>385</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C354" s="6">
-        <v>827188</v>
+        <v>719000</v>
       </c>
       <c r="D354" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E354" t="s">
         <v>349</v>
       </c>
-      <c r="F354" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>412</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>404</v>
+        <v>386</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C355" s="6">
-        <v>860275</v>
+        <v>759000</v>
       </c>
       <c r="D355" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E355" t="s">
         <v>348</v>
       </c>
-      <c r="F355" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>413</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>404</v>
+        <v>387</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C356" s="6">
-        <v>860275</v>
+        <v>759000</v>
       </c>
       <c r="D356" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E356" t="s">
         <v>349</v>
       </c>
-      <c r="F356" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>408</v>
-      </c>
-      <c r="B357" s="8" t="s">
-        <v>404</v>
+        <v>382</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C357" s="6">
-        <v>1080859</v>
+        <v>939000</v>
       </c>
       <c r="D357" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E357" t="s">
         <v>348</v>
       </c>
-      <c r="F357" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>409</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>404</v>
+        <v>383</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C358" s="6">
-        <v>1169092</v>
+        <v>939000</v>
       </c>
       <c r="D358" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E358" t="s">
         <v>349</v>
       </c>
-      <c r="F358" t="s">
-        <v>419</v>
-      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B359" s="9">
+        <v>1159000</v>
+      </c>
+      <c r="C359" s="6">
+        <v>1159000</v>
+      </c>
+      <c r="D359" t="s">
+        <v>400</v>
+      </c>
+      <c r="E359" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B360" s="9">
+        <v>799000</v>
+      </c>
+      <c r="C360" s="6">
+        <v>799000</v>
+      </c>
+      <c r="D360" t="s">
+        <v>400</v>
+      </c>
+      <c r="E360" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B361" s="9">
+        <v>1119000</v>
+      </c>
+      <c r="C361" s="6">
+        <v>1119000</v>
+      </c>
+      <c r="D361" t="s">
+        <v>400</v>
+      </c>
+      <c r="E361" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B362" s="9">
+        <v>1269000</v>
+      </c>
+      <c r="C362" s="6">
+        <v>1269000</v>
+      </c>
+      <c r="D362" t="s">
+        <v>400</v>
+      </c>
+      <c r="E362" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B363" s="9">
+        <v>1699000</v>
+      </c>
+      <c r="C363" s="6">
+        <v>1699000</v>
+      </c>
+      <c r="D363" t="s">
+        <v>365</v>
+      </c>
+      <c r="E363" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B364" s="9">
+        <v>999000</v>
+      </c>
+      <c r="C364" s="6">
+        <v>999000</v>
+      </c>
+      <c r="D364" t="s">
+        <v>365</v>
+      </c>
+      <c r="E364" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B365" s="9">
+        <v>1799000</v>
+      </c>
+      <c r="C365" s="6">
+        <v>1799000</v>
+      </c>
+      <c r="D365" t="s">
+        <v>365</v>
+      </c>
+      <c r="E365" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B366" s="9">
+        <v>499000</v>
+      </c>
+      <c r="C366" s="6">
+        <v>499000</v>
+      </c>
+      <c r="D366" t="s">
+        <v>401</v>
+      </c>
+      <c r="E366" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B367" s="9">
+        <v>699000</v>
+      </c>
+      <c r="C367" s="6">
+        <v>699000</v>
+      </c>
+      <c r="D367" t="s">
+        <v>401</v>
+      </c>
+      <c r="E367" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B368" s="9">
+        <v>459000</v>
+      </c>
+      <c r="C368" s="6">
+        <v>459000</v>
+      </c>
+      <c r="D368" t="s">
+        <v>401</v>
+      </c>
+      <c r="E368" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B369" s="9">
+        <v>459000</v>
+      </c>
+      <c r="C369" s="6">
+        <v>459000</v>
+      </c>
+      <c r="D369" t="s">
+        <v>401</v>
+      </c>
+      <c r="E369" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A370" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B370" s="9">
+        <v>899000</v>
+      </c>
+      <c r="C370" s="6">
+        <v>899000</v>
+      </c>
+      <c r="D370" t="s">
+        <v>401</v>
+      </c>
+      <c r="E370" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="8"/>
+      <c r="B371" s="9"/>
+      <c r="C371" s="6"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="8"/>
+      <c r="B372" s="9"/>
+      <c r="C372" s="6"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="8"/>
+      <c r="B373" s="9"/>
+      <c r="C373" s="6"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="8"/>
+      <c r="B374" s="9"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="8"/>
+      <c r="B375" s="9"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="8"/>
+      <c r="B376" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F351" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <hyperlinks>
-    <hyperlink ref="F276" r:id="rId1" xr:uid="{72F40706-6A5C-4749-8C0B-463B58D40147}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>